--- a/smirnoff.xlsx
+++ b/smirnoff.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -20,499 +20,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="424">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>rt @isaqueandrade20: open bar de smirnoff + dj cabelão do turano + dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, v…</t>
-  </si>
-  <si>
-    <t>rt @susuhalve: dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de…</t>
-  </si>
-  <si>
-    <t>mds do seu o role de ontem foi mt loco kkkk acabei com uma garrafa de smirnoff junto com o gordinho</t>
-  </si>
-  <si>
-    <t>quem me dera ter dinheiro pra smirnoff kajjs é só leonoff e cantinão das trevas mesmo que cabe no bolso https://t.co/uyxljrkmmb</t>
-  </si>
-  <si>
-    <t>quem quer levar pra vida toda? — acho que uma smirnoff https://t.co/o6c6acb43y</t>
-  </si>
-  <si>
-    <t>parece @smirnoff_16 kkkkkkkkk https://t.co/fzfx09yhri</t>
-  </si>
-  <si>
-    <t>rt @pedr00n: 🔛me separei - neon edition🔛
+    <t>rt @sfvtzada: @srtarousey tem k.o nao kkkkk duas smirnoff pra voce sem stress</t>
+  </si>
+  <si>
+    <t>rt @ryan__rd: transou? não explana!
+namora? não trai!
+quer? corre atrás!
+não fode? chupa!</t>
+  </si>
+  <si>
+    <t>rt @azeved0g: 🔛me separei - neon edition🔛
 ⚠5 garotas= smirnoff⚠ 
-confirmem presença lá no nosso evento ✔https://t.co/zwxnyacniv https://t.…</t>
-  </si>
-  <si>
-    <t>rt @heenriiquee157: dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open ba…</t>
-  </si>
-  <si>
-    <t>ta amarrado fi, acho que hoje ninguém bebe mais smirnoff original kkkkkkkkk</t>
-  </si>
-  <si>
-    <t>me deem de presente só smirnoff de pêssego pleaseeee</t>
-  </si>
-  <si>
-    <t>rt @juaopauloreal: to com medo de ficar la na calssada de casa e o carro do lixo me levar</t>
-  </si>
-  <si>
-    <t>mds essa smirnoff é uma delícia</t>
-  </si>
-  <si>
-    <t>levei umas bud la no nene ontem e uma smirnoff a mae dele fez um capeta com o bgl fico naski kkkk</t>
-  </si>
-  <si>
-    <t>rt @porra_dindi: 16 setembro / #resenhabtx / point do m / dj mv da v.i / dj cabelão do turano / open bar smirnoff/ energético/ caipirinha/…</t>
-  </si>
-  <si>
-    <t>mae compro smirnoff pra mim ❤</t>
-  </si>
-  <si>
-    <t>to só por experimentar essa smirnoff de açaí</t>
-  </si>
-  <si>
-    <t>o vizinho quebrou uma smirnoff na escada, limpou uma parte dos cacos e largou a sujeira lá
-além de mó perigo, ainda tá mó cheirão de alcool</t>
-  </si>
-  <si>
-    <t>nossa eu nao posso esquecer de colocar a smirnoff depois na geladeira</t>
-  </si>
-  <si>
-    <t>minha mae é xóvi q fica beba com 2 smirnoff ice</t>
-  </si>
-  <si>
-    <t>rt @gabrielsilvrez4: @mariavitoriagu8 vdd smirnoff ngm merece</t>
-  </si>
-  <si>
-    <t>-  fiz vira vira de smirnoff 😂</t>
-  </si>
-  <si>
-    <t>rt @pereguetes: hoje eu queria:
--carro de som tocando @pereguetes 
--smirnoff no chão
--@bethsouza_ gritando no balaio
--amigos reunidos</t>
-  </si>
-  <si>
-    <t>crise existencial bateu fui me entupir de comi e acabei me entupindo de smirnoff</t>
-  </si>
-  <si>
-    <t>meu filho que que é smirnoff perto de chandon?</t>
-  </si>
-  <si>
-    <t>meninas que são bancadas pelo pai. amo smirnoff</t>
-  </si>
-  <si>
-    <t>15 setembro / #resenhabtx / point do m / dj mv da v.i / dj cabelão do turano / open bar smirnoff/ energético/ caipirinha/ gummy / homens 25</t>
-  </si>
-  <si>
-    <t>o prêmio da ec1 esse semestre vai ser cortesia da @biapaaixao que vai dar smirnoff pra turma!</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff ®°</t>
-  </si>
-  <si>
-    <t>pensei que eu estava de vaga mas n to nao, eu 2t e nk matamos uma garrafa de smirnoff pura em um pisca de olhos</t>
-  </si>
-  <si>
-    <t>con que necesidad de comprar 3 smirnoff lcdll</t>
-  </si>
-  <si>
-    <t>o que é smirnoff perto da balalaika?</t>
-  </si>
-  <si>
-    <t>rt @isaqueandrade20: dia 15 de setembro tem #resenhabtx com dj cabelão do turano, open bar de smirnoff 💃</t>
-  </si>
-  <si>
-    <t>bebo a tarde inteira, amanheço de boa
-bebo uma smirnoff, acordo explodindo de dor de cabeça</t>
-  </si>
-  <si>
-    <t>descobri que smirnoff é meu novo amor</t>
-  </si>
-  <si>
-    <t>e bebi smirnoff de caixinha, pensa num trem ruim ??</t>
-  </si>
-  <si>
-    <t>muito plena com minha smirnoff e minha batida de pinheirense</t>
-  </si>
-  <si>
-    <t>acabou a smirnoff tô nem aí os cria bebe krakovia kkkk</t>
-  </si>
-  <si>
-    <t>smirnoff ice é tudo de bom</t>
-  </si>
-  <si>
-    <t>amanhã vou gastar meu vale tudo em chocolate salgadinho e smirnoff</t>
-  </si>
-  <si>
-    <t>comprei mais 2 smirnoff 😏🍺💜</t>
-  </si>
-  <si>
-    <t>yan foi lá comprar o energético pra gente bb com smirnoff</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff  +  dj cabelão do turano +  dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ? 💅</t>
-  </si>
-  <si>
-    <t>só um copão de smirnoff com energético geladinho</t>
-  </si>
-  <si>
-    <t>rt @majudeju: então, a pri faz só 18tão amanhã, mas a gente ja passou uma smirnoff kkkkkkk pensa no cu na mao</t>
-  </si>
-  <si>
-    <t>hj eu e a natasha fomos na rede sozinhas, bebemos umas smirnoff e umas skol beats, comemos uns bis, e depois um churrasquinho 😍👌👏</t>
-  </si>
-  <si>
-    <t>eu to numa decadência, eu só bebia sky e smirnoff, ontem tomei uma vodka de 9 reais, mas dps tomei só bohemia kkkkkk</t>
-  </si>
-  <si>
-    <t>rt @ranya_souzza: hugo ontem deixou uma smirnoff aqui cheia</t>
-  </si>
-  <si>
-    <t>rt @listadetarefas: o prêmio da ec1 esse semestre vai ser cortesia da @biapaaixao que vai dar smirnoff pra turma!</t>
-  </si>
-  <si>
-    <t>@supeirwgierl @eretriwa @becks_pr @momotinho quero chapar o globo de smirnoff</t>
-  </si>
-  <si>
-    <t>tenho q parar de fazer merda na minha vida grr</t>
-  </si>
-  <si>
-    <t>então, a pri faz só 18tão amanhã, mas a gente ja passou uma smirnoff kkkkkkk pensa no cu na mao</t>
-  </si>
-  <si>
-    <t>não sou de beber, mas a smirnoff ice nem tem gosto de pinga e é uma delicinha</t>
-  </si>
-  <si>
-    <t>@whoisnialler_ @joongia no aniversário da paula eu tava de boa. a mulher me deu smirnoff que é tipo refrigerante, fiquei com sono pra porra.</t>
-  </si>
-  <si>
-    <t>deus abençoe a smirnoff e que meu pau cresça</t>
-  </si>
-  <si>
-    <t>meu pai chegou com uma smirnoff, whisky, caixa de espumante, caixa de heineken com 12 long neck, será que essa viagem vai render?</t>
-  </si>
-  <si>
-    <t>achei smirnoff ice de pêssego horrível 🤢</t>
-  </si>
-  <si>
-    <t>rt @carolpaolinetti: meu tio é a melhor pessoa!!! ele comprou smirnoff ice pra mim ❤️❤️</t>
-  </si>
-  <si>
-    <t>@ello_amoroso @eretriwa @becks_pr @momotinho minina eu tbm, smirnoff e tequils</t>
-  </si>
-  <si>
-    <t>vodka de 10 é melhor que smirnoff https://t.co/wrvndwbqwe</t>
-  </si>
-  <si>
-    <t>eu e o lb fizemos brigadeiro com smirnoff kkkkkkkkkkkkkk manoo isso é mtt bom</t>
-  </si>
-  <si>
-    <t>caraca se o garoto da smirnoff não estiver em todos os roles do posto eu não desço mais aaaa kkkkkkkkk</t>
-  </si>
-  <si>
-    <t>matematicamente nos tomamo umas 14 cx de latao 6 jurupinga 1 catuaba e 2 garrafa de smirnoff esse fds</t>
-  </si>
-  <si>
-    <t>virei um shot de smirnoff com o mozao kkkkk meeee aquilo afetou diretamente meu rim</t>
-  </si>
-  <si>
-    <t>fds que é smirnoff, essa porra tbm e foda...😴🤯💤</t>
-  </si>
-  <si>
-    <t>rt @rainhadobasead0: open bar de smirnoff + dj cabelão do turano + dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, v…</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff https'</t>
-  </si>
-  <si>
-    <t>rt @awerafaa: @jefersonjc11 amanha tu já passa aq sla, pra nos comprar logo essa caixa de smirnoff</t>
-  </si>
-  <si>
-    <t>ainda tem 6 garrafas de smirnoff</t>
-  </si>
-  <si>
-    <t>meu domingo teve churrasco em família with família mota, resenha, crianças brincando, smirnoff ice e papo de futuro com a hiu</t>
-  </si>
-  <si>
-    <t>nós tomamos uma smirnoff de frutas vermelhas a fio</t>
-  </si>
-  <si>
-    <t>rt @elklacerdes: smirnoff é merda yeah, não bebo +</t>
-  </si>
-  <si>
-    <t>rt @casabarramusic: é hoje💥
-promoções: 
-dose de catuaba r$3,00
-dose de jurupinga r$3,00
-dose de smirnoff r$3,00
-lata de antarctica r$3,00…</t>
-  </si>
-  <si>
-    <t>ganhei uma smirnoff lá no trabalho vou embrasar lá no barenco</t>
-  </si>
-  <si>
-    <t>@michellices sou um tradicional, smirnoff por ser por preço/satisfação melhor, 0 ressaca
-tem 1 de garrafa azul que adoro, mas caro pra achar</t>
-  </si>
-  <si>
-    <t>só ta frio pra quem não conheçe a "smirnoff "..</t>
-  </si>
-  <si>
-    <t>tem uma smirnoff de strawberry lime na geladeira
-chguei ontem passei correndo pela sala e meus pais acharam q era suco</t>
-  </si>
-  <si>
-    <t>rt @sccp_lc3: só ta frio pra quem não conheçe a "smirnoff "..</t>
-  </si>
-  <si>
-    <t>smirnoff 998ml 9,99 em macapá, 9,99, nove reais e noventa e nova centavos, mermão, vou levar uma caixa de 12 p rj, vão me parar no aeroporto</t>
-  </si>
-  <si>
-    <t>nunca mais bebi uma smirnoff original kkkkkkkkk😭😭😭😭</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff  +  dj cabelão do turano +  dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ? 😅</t>
-  </si>
-  <si>
-    <t>meu tio é a melhor pessoa!!! ele comprou smirnoff ice pra mim ❤️❤️</t>
-  </si>
-  <si>
-    <t>@guiaugustoff gela, umas doses de smirnoff e outras de 51
-mt susu</t>
-  </si>
-  <si>
-    <t>gente anotem ai absolut e smirnoff são exatamente a mesma coisa só muda o preço</t>
-  </si>
-  <si>
-    <t>parabéns a ganhadora do combo de smirnoff!!!😍❤️
-►débora picolli
-parabéns e boa balada!!!</t>
-  </si>
-  <si>
-    <t>porrei uma smirnoff eu e denner só nos dois.</t>
-  </si>
-  <si>
-    <t>ai maryane passa e a garrafa de smirnoff rola no chão kkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>a madrinha de arthur tem uma smirnoff dentro do carro</t>
-  </si>
-  <si>
-    <t>meu primeiro porre foi com smirnoff e sprite https://t.co/rk2gkn4qah</t>
-  </si>
-  <si>
-    <t>meu irmão deixou eu experimentar smirnoff, amo muito</t>
-  </si>
-  <si>
-    <t>to com uma tosse horrível nada que a smirnoff não cure😂😎</t>
-  </si>
-  <si>
-    <t>@jefersonjc11 amanha tu já passa aq sla, pra nos comprar logo essa caixa de smirnoff</t>
-  </si>
-  <si>
-    <t>hugo ontem deixou uma smirnoff aqui cheia</t>
-  </si>
-  <si>
-    <t>rt @letrasum44k: no final todo mundo precisa daquela pessoa, que acima de tudo, faz seu coração disparar, pelo simples fato de existir...</t>
-  </si>
-  <si>
-    <t>rt @lohaan_silva: dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar…</t>
-  </si>
-  <si>
-    <t>partiu misturar açaí com smirnoff</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff ®*</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff + dj cabelão do turano + dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ??</t>
-  </si>
-  <si>
-    <t>mistura boa é smirnoff,energético, catuaba, jurupinga, gummy, coca, fanta, etc.. agr nos ta merda passando um mal do crlh..😪😂😏</t>
-  </si>
-  <si>
-    <t>rt @vitinho_148: open bar de smirnoff + dj cabelão do turano + dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos…</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff °.</t>
-  </si>
-  <si>
-    <t>queria comprar smirnoff e energético no guanabara, mas n vai dar tempo</t>
-  </si>
-  <si>
-    <t>ir pro open bar e beber budweiser e smirnoff? nada disso, vou pro open bar é pra beber corote</t>
-  </si>
-  <si>
-    <t>ontem fiquei bêbada com três smirnoff ice. desisto de tentar qualquer bebida alcoólica. adeus</t>
-  </si>
-  <si>
-    <t>rt @letrasum44k: sinceramente? eu não esperava algumas atitudes de certas pessoas.</t>
-  </si>
-  <si>
-    <t>rt @espeertoh: se vc nao usa o domingo p dormir o dia inteiro vc tá domingando errado</t>
-  </si>
-  <si>
-    <t>alguem vamu bebe comigo e kath hj temos smirnoff e gudanggggg tudobomm</t>
-  </si>
-  <si>
-    <t>uma smirnoff né, gente que isssssssso 😍😍😍😍😍😍</t>
-  </si>
-  <si>
-    <t>@ello_amoroso @eretriwa @becks_pr @momotinho eu quero mais smirnoff é mt bom scr</t>
-  </si>
-  <si>
-    <t>rt @brnmarciel: sdd ter mensagem inesperada que faça o coração disparar</t>
-  </si>
-  <si>
-    <t>rt @renansaid1: pensei que eu estava de vaga mas n to nao, eu 2t e nk matamos uma garrafa de smirnoff pura em um pisca de olhos</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff ®"</t>
-  </si>
-  <si>
-    <t>gente eu nem gosto de beber, mas essa garrafa da smirnoff é tão linda que eu quero p mim https://t.co/eczqgc8qbq</t>
-  </si>
-  <si>
-    <t>@soaresrayssaa @mousseveloso rsrs</t>
-  </si>
-  <si>
-    <t>e nós q estamos tomando smirnoff</t>
-  </si>
-  <si>
-    <t>hoje é sábado com "s" de smirnoff</t>
-  </si>
-  <si>
-    <t>smirnoff com suco https://t.co/1n9j0vx2js</t>
-  </si>
-  <si>
-    <t>q vontade de toma aquela smirnoff de maça verde 😢</t>
-  </si>
-  <si>
-    <t>@white99mustang sim, não existe uma boa criação sem um briefing bom. assim como a smirnoff, que existe em 143 paíse… https://t.co/gwqznctrlq</t>
-  </si>
-  <si>
-    <t>daqui a pouco começamos com a "agenda positiva" da semana!</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff  +  dj cabelão do turano +  dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ? 😛</t>
-  </si>
-  <si>
-    <t>costumo criticar quem usa tarjinha preta s/ necessidade, mas hj tô entendendo esse pessoal, é cada nervoso que nóis passa q até smirnoff vai</t>
-  </si>
-  <si>
-    <t>rt @citouoprojota: meu silêncio significa 1 milhão de pensamentos.</t>
-  </si>
-  <si>
-    <t>saudades de qd ganhei 2 vips e 1l de smirnoff na 1007</t>
-  </si>
-  <si>
-    <t>peguei uma smirnoff é um cítrus tô bebendo uma aqui sozinho sem ninguém</t>
-  </si>
-  <si>
-    <t>só ta frio pra quem não conheçe a "smirnoff "</t>
-  </si>
-  <si>
-    <t>estou bebendo smirnoff com coca cola e gelo de coco😘😍</t>
-  </si>
-  <si>
-    <t>ainda bebi smirnoff e um pouco de whisky</t>
-  </si>
-  <si>
-    <t>esse final de semana vendi 8 litro de old par, 1 litro de gold label e 1 smirnoff ! oh povo que bebi viu 🤣🤣🤣</t>
-  </si>
-  <si>
-    <t>[2/9 20:52] cyelle: 2 vodka
-2 energético
-1 smirnoff
-1 catu
-mt bebidaaaa
-[2/9 20:52] mh vadiaaa ♡: meu deus, hj eu vou dar o cu</t>
-  </si>
-  <si>
-    <t>o maluco passou aqui vendendo uma smirnoff por 20 conto, quase que eu pego</t>
-  </si>
-  <si>
-    <t>vontade de tomar uma smirnoff hoje e e e e</t>
-  </si>
-  <si>
-    <t>[2/9 10:53] yasmim: comprei uma smirnoff
-[2/9 10:54] zé: aeeeeeeee crlhooooooooo
-[2/9 10:54] zé: 😍😍😍😍😍😍😍😍😍😍</t>
-  </si>
-  <si>
-    <t>melhor coisa é passar longe da smirnoff do hookah</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff + dj cabelão do turano + dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ?</t>
-  </si>
-  <si>
-    <t>pai da larissa me apoiou uma smirnoff com energetico, amo esse cara</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff</t>
-  </si>
-  <si>
-    <t>esse negócio de ficar brincando de verdade &amp;amp; consequência valendo virar um copo de smirnoff não vai dar certo 😂😂</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff  +  dj cabelão do turano +  dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ? 😍</t>
-  </si>
-  <si>
-    <t>meta  :
-comprar um liquidificador e uma garrafa de smirnoff.</t>
-  </si>
-  <si>
-    <t>estou com 5 garrafas de smirnoff, não sei oque fazer.</t>
-  </si>
-  <si>
-    <t>virei uns shot de smirnoff ontem e tomei umas pinga azul q não devia, mistura breja c bebida forte n da</t>
-  </si>
-  <si>
-    <t>rt @limaliandraa: e essa smirnoff de açaí?  
-to querendo</t>
-  </si>
-  <si>
-    <t>@gabriellyffc tem 51 quase cheia, smirnoff e jurupinga, vai lá cuzona</t>
-  </si>
-  <si>
-    <t>rt @bbmpothead: quando vcs compram o combo d absolut vem smirnoff e se compra smirnoff vem kirskoff</t>
-  </si>
-  <si>
-    <t>meu vô fica falando pra eu parar de tomar bebida barata, e comprar smirnoff, acha que eu tenho dinheiro pra isso kkkkkk</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff ®©</t>
-  </si>
-  <si>
-    <t>rt @brenoronald11: @smirnoff_16 parece você kkkkkkk https://t.co/6ycjjt9zwo</t>
-  </si>
-  <si>
-    <t>@mariavitoriagu8 vdd smirnoff ngm merece</t>
-  </si>
-  <si>
-    <t>tomando smirnoff gelada que fazia um mês que estava na geladeira</t>
-  </si>
-  <si>
-    <t>rt @srtkarolribeiro: vontade daquilo que começa com s
-smirnoff ice</t>
-  </si>
-  <si>
-    <t>eu to rindo, acabamos com uma garrafa de smirnoff</t>
-  </si>
-  <si>
-    <t>smirnoff tá cara pra crl, 40$ conto aqui no mercado, vai ficar aqui</t>
-  </si>
-  <si>
-    <t>rt @isaqueandrade20: dia 16 de setembro tem #resenhabtx com dj cabelão do turano, open bar de smirnoff 😍💃</t>
-  </si>
-  <si>
-    <t>rt @_gkoch: pai da larissa me apoiou uma smirnoff com energetico, amo esse cara</t>
+reserve seu camarote!!
+confirmem presença lá no nosso evento ✔
+https://…</t>
+  </si>
+  <si>
+    <t>rt @sagacidademnr: entenda, sempre vai ter uma pessoa disposta a fazer o que você não faz</t>
+  </si>
+  <si>
+    <t>rt @davidson_revel: 🔛me separei - neon edition🔛
+⚠5 garotas= smirnoff⚠ 
+reserve seu camarote!!
+confirmem presença lá no nosso evento ✔
+ht…</t>
+  </si>
+  <si>
+    <t>rt @zuadorcitou: ex quando volta a curtir suas fotos é sinal que não arrumou nada melhor que vc</t>
+  </si>
+  <si>
+    <t>rt @launcastro: as vezes no silêncio da noite.. eu fico imaginando eu bem empregado, carrão, casa própria..</t>
+  </si>
+  <si>
+    <t>tô tomando smirnoff</t>
+  </si>
+  <si>
+    <t>minha mãe comprou smirnoff pra mimmm ❤</t>
+  </si>
+  <si>
+    <t>quem é que traz uma smirnoff pro serviço? 🙋🏻‍♂️</t>
+  </si>
+  <si>
+    <t>rt @papaididicolife: nós é novão mas é cada música das antigas que nós ouve</t>
+  </si>
+  <si>
+    <t>@narcissus_hoe @094cupid quem morrer não ganha smirnoff</t>
+  </si>
+  <si>
+    <t>rt @privacidades: valorizar não dói.
+perder sim.</t>
+  </si>
+  <si>
+    <t>rt @privacidades: estou ignorando tanta coisa, fingindo não ver, não sentir.</t>
+  </si>
+  <si>
+    <t>@maryannarsf @smirnoff_16 @juniorseumerda agressiva ela ( vcs são lindos, shippo )</t>
+  </si>
+  <si>
+    <t>tenho muita sorte em festas, ontem entrei de graça, ganhei 3 cortesias pros meus amigos que iam pagar caro e um combo de vodka smirnoff kkk</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: tudo vai, tudo é fase.</t>
+  </si>
+  <si>
+    <t>olhei pro meu banner de 15 e me vi dançando nele. meu deus, olha q eu bebi smirnoff</t>
+  </si>
+  <si>
+    <t>fui p borba, bebi breja, f1 voltei pa casa tava acabada, fui pra ariel, tomei askov d limao, dps smirnoff, cheguei na 1007 tomei beats</t>
+  </si>
+  <si>
+    <t>rt @_alexgavea_: @flamengo @ribasdiego10 é, tite anda tomando uns carabao com smirnoff... https://t.co/s05z4wafe3</t>
   </si>
   <si>
     <t>rt @wellitinho0: 🔛me separei - neon edition🔛
@@ -521,476 +103,1343 @@
 https://t.co/ueugruqaf0 https…</t>
   </si>
   <si>
-    <t>rt @aguiaresthefany: ai maryane passa e a garrafa de smirnoff rola no chão kkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>rt @laraemilio: me deem de presente só smirnoff de pêssego pleaseeee</t>
-  </si>
-  <si>
-    <t>to com tanta vontade de tomar uma smirnoff ice e a latinha é barata, mas nem tenho idade pra ir comprar sozinha ainda grr</t>
-  </si>
-  <si>
-    <t>bah ontem foi ciroc, smirnoff, absolut foi mt louco</t>
-  </si>
-  <si>
-    <t>bom dia minha caixinha de smirnoff triple citrus</t>
-  </si>
-  <si>
-    <t>hoje eu queria:
--carro de som tocando @pereguetes 
--smirnoff no chão
--@bethsouza_ gritando no balaio
--amigos reunidos</t>
-  </si>
-  <si>
-    <t>@guilhermearraes até onde eu lembro foi tipo umas 3 garrafas de askov, 1 catuaba e acho que bebemos aquela smirnoff de caixinha</t>
-  </si>
-  <si>
-    <t>acordei e tinha uma garrafa de smirnoff na geladeira 🙄</t>
-  </si>
-  <si>
-    <t>é hoje💥
-promoções: 
-dose de catuaba r$3,00
-dose de jurupinga r$3,00
-dose de smirnoff r$3,00
-lata de antarctica r$3… https://t.co/opel1imfgl</t>
-  </si>
-  <si>
-    <t>mó tempão que não bebo uma smirnoff 😞😂</t>
-  </si>
-  <si>
-    <t>fui virar a smirnoff e fiquei com dor no peito</t>
-  </si>
-  <si>
-    <t>@jeniffercosta55 pser kkkk</t>
-  </si>
-  <si>
-    <t>vários buchas estão pagando 35 na garrafa de smirnoff, e bebendo vodka de 8$ kkkk https://t.co/yujgw3vhyp</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff °</t>
-  </si>
-  <si>
-    <t>adoro tomar smirnoff e ficar conversando com minha mãe</t>
-  </si>
-  <si>
-    <t>e a minha mãe ligeiramente bêbada que foi cancelar o strogonoff que "veio" na conta mas na real era uma smirnoff e ela tinha lido errado</t>
-  </si>
-  <si>
-    <t>rt @biapaaixao: n importa mais vencer ou n vcs ja ganharam minha smirnoff seus lindos</t>
-  </si>
-  <si>
-    <t>rt @miguel_f88: fds que é smirnoff, essa porra tbm e foda...😴🤯💤</t>
-  </si>
-  <si>
-    <t>fora as pingas,1 garrafa de bala blue,1 jurupinga e o corotes de sabor e as smirnoff</t>
-  </si>
-  <si>
-    <t>bom dia. to puta pq nn tinha skol beats no espaço mix. e eu fiquei de smirnoff ice, e nao senti uma onda. como pode, corretíssima!</t>
-  </si>
-  <si>
-    <t>ontem o baiano me fez misturar moscowita smirnoff e kovak, aquilo deu moca</t>
-  </si>
-  <si>
-    <t>natasha nem misturando
-smirnoff, orloff misturando é ok
-tomar pura só de absolut pra cima</t>
-  </si>
-  <si>
-    <t>camarotes esgotados hoje pra bora music, cheguem cedo, na compra de 1 combo de smirnoff ganhe outra garrafa até 00h😱
-#segueobaile</t>
-  </si>
-  <si>
-    <t>@eeknd experimenta a smirnoff brazilian berry... é mt ruim</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff  +  dj cabelão do turano +  dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ? !</t>
-  </si>
-  <si>
-    <t>tenho foto virando, balalaika, smirnoff, sábado eu tiro virando jurupinga 😊</t>
-  </si>
-  <si>
-    <t>@smirnoff_16 @soaresrayssaa opa rsrs</t>
-  </si>
-  <si>
-    <t>e essa smirnoff de açaí?  
-to querendo</t>
-  </si>
-  <si>
-    <t>parei de sair..</t>
-  </si>
-  <si>
-    <t>rt @letrasum44k: eu quero a sorte de um amor tranquilo..</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff ®'</t>
-  </si>
-  <si>
-    <t>@gabriel1269 @gabriel_landin_ eu smirnoff  pq deu vontade, vo levar na minha garrafinha do pluto rss  na aula da marina</t>
-  </si>
-  <si>
-    <t>rt @um_melzinho: dj mv da vila ideal , dj cabelão do turano, dj dg de caixas, dj nariz , dj cabelinho, e open bar de smirnoff, na #resenhab…</t>
-  </si>
-  <si>
-    <t>n importa mais vencer ou n vcs ja ganharam minha smirnoff seus lindos</t>
-  </si>
-  <si>
-    <t>um tatuagem 
-uma smirnoff https://t.co/acfn5bekzk</t>
-  </si>
-  <si>
-    <t>adicionei um vídeo a uma playlist @youtube https://t.co/pmarl0brte de halls mix - com smirnoff vodka halls como fazer - papo</t>
-  </si>
-  <si>
-    <t>acabei com uma garrafa de smirnoff sozinho eu to mecnelson</t>
-  </si>
-  <si>
-    <t>que mercado que não tem uma smirnoff ou uma sky pra comprar ossada</t>
-  </si>
-  <si>
-    <t>eu e gton fizemos uma correria aí , tamos com 4 smirnoff  , a cara da ressaca amanhã kkkk</t>
-  </si>
-  <si>
-    <t>smirnoff de caixinha é ruim</t>
-  </si>
-  <si>
-    <t>descobri meu mais novo amor e se chama smirnoff ice storm.</t>
-  </si>
-  <si>
-    <t>2 jack daniels, 2 smirnoff, 1 red label eo resto de energéticos e cola, os meninos tava daquele jeito...</t>
-  </si>
-  <si>
-    <t>tô com duas vodkas em casa 😍 uma smirnoff de limão e outra que eu roubei numa festinha aí 😂😂😂</t>
-  </si>
-  <si>
-    <t>a project e semana q vem rsrs</t>
-  </si>
-  <si>
-    <t>rt @marcosromblspe2: open bar de smirnoff + dj cabelão do turano + dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, v…</t>
-  </si>
-  <si>
-    <t>tem duas garrafas de smirnoff pela metade na geladeira acho q vou compra um energy e fazer um drink 🍹</t>
-  </si>
-  <si>
-    <t>compramos um kit de smirnoff p ir em ipanema ❤</t>
-  </si>
-  <si>
-    <t>só existe dois tipos de música:
-música boa e música ruim
-- excluindo axé, sertanojo, funk e pagode é claro!</t>
-  </si>
-  <si>
-    <t>rt @maria_rosariof: dj mv da vila ideal , dj cabelão do turano, dj dg de caixas, dj nariz , dj cabelinho, e open bar de smirnoff, na #resen…</t>
-  </si>
-  <si>
-    <t>os malucos são brabos kkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>desmanche tava maravilhoso, mas vim embora pois eu aprendi uma lição valiosa hoje: não misturar catuaba com askov, smirnoff e vinho</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff  +  dj cabelão do turano +  dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ?</t>
-  </si>
-  <si>
-    <t>queria saber onde a neide deixou a smirnoff</t>
-  </si>
-  <si>
-    <t>pensando aqui como foi 1 litro de smirnoff com 1 de refri porran</t>
-  </si>
-  <si>
-    <t>ah é esqueci de falar mas a smirnoff tá 17 conto no bh</t>
-  </si>
-  <si>
-    <t>falem algo melhor que smirnoff com dell valle de uva e eu desisto de viver!</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff  +  dj cabelão do turano +  dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ? .</t>
-  </si>
-  <si>
-    <t>e o litro de smirnoff que a gente ganhou de graça</t>
-  </si>
-  <si>
-    <t>estava pensando em tomar algu com um pouco mais de requinte mas por motivo de força maior, resolvi ficar na smirnoff mesmo.😂😂😂😂😂😂😂😂😂😂</t>
-  </si>
-  <si>
-    <t>eu e meu tio compramos um engradado de latão é uma smirnoff 🍺✌️</t>
-  </si>
-  <si>
-    <t>rt @vitinho_148: dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar d…</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff  +  dj cabelão do turano +  dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ? 💃</t>
-  </si>
-  <si>
-    <t>nós bebe darkoff, smirnoff é mt caro https://t.co/fwxblxrfq1</t>
-  </si>
-  <si>
-    <t>@smirnoff_16 @mousseveloso os mlk é liso</t>
-  </si>
-  <si>
-    <t>krl o smirnoff que levei ontem n duro 10 minuto</t>
-  </si>
-  <si>
-    <t>smirnoff pura e foda-se.</t>
-  </si>
-  <si>
-    <t>achei metade de uma garrafa de smirnoff esquecida aqui no guarda roupa, se esse não é meu dia não sei qual vai ser</t>
-  </si>
-  <si>
-    <t>parece que vai sair cerveja pra todo lado, tipo bohemia, sol, eisenbahn, polar e mais as smirnoff...que dia</t>
-  </si>
-  <si>
-    <t>o meu foi smirnoff com sprite, nunca mais bebi https://t.co/zseeaqo57i</t>
-  </si>
-  <si>
-    <t>rt @dgscanzi: do nada rolou cerva e smirnoff aqui kkkk, domingo sendo domingo kkkkk</t>
-  </si>
-  <si>
-    <t>cheguei no mercado e dei de cara com uma promoção de smirnoff ice mas só oq eu pude comprar foi um energético :(</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff  +  dj cabelão do turano +  dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ? 😴</t>
-  </si>
-  <si>
-    <t>escolher me encher de brócolis e legumes ao invés de cerveja e smirnoff... a idade chega pra todos</t>
-  </si>
-  <si>
-    <t>os cara chega aqui no serviço põem uma garrafa de smirnoff em cima da mesa, põem uma caixa de som da jbl, e me lança um sertanejo no 12</t>
-  </si>
-  <si>
-    <t>15 setembro / #resenhabtx / point do m / dj mv da v.i / dj cabelão do turano / open bar smirnoff/ energético/ caipirinha/ gummy / homens 25💘</t>
-  </si>
-  <si>
-    <t>eu vejo esse video automaticamente sobre o cheiro de smirnoff ice e o cabelo fica pura novex https://t.co/dgth1vc4h2</t>
-  </si>
-  <si>
-    <t>diogo quer comprar smirnoff kkkkkkkk mal sabe q meus amigos bebem caninha da roça/51</t>
-  </si>
-  <si>
-    <t>rt @coisalinda37: 16 setembro / #resenhabtx / point do m / dj mv da v.i / dj cabelão do turano / open bar smirnoff/ energético/ caipirinha/…</t>
-  </si>
-  <si>
-    <t>vodka de 10 reais é melhor que smirnoff, tô muito louco kkk</t>
-  </si>
-  <si>
-    <t>@tocomvcs @jvpagani nada supera nosso café com smirnoff</t>
-  </si>
-  <si>
-    <t>tô tão tempo sem beber, que tô achando vodka smirnoff com energético ruim pra porra</t>
-  </si>
-  <si>
-    <t>vodka é o melhor calmante semanal q existe. obrigada smirnoff ❤️</t>
-  </si>
-  <si>
-    <t>ke saudade de uma smirnoff ice</t>
-  </si>
-  <si>
-    <t>achei smirnoff verdadeira 😍😍😍</t>
-  </si>
-  <si>
-    <t>eu e o mario escondeu uma smirnoff lá perto do deck kkkk tá mocada, o corre é ir pra la hj de novo e tomar o resto kkk</t>
-  </si>
-  <si>
-    <t>rt @manuhh_of: eu e o lb fizemos brigadeiro com smirnoff kkkkkkkkkkkkkk manoo isso é mtt bom</t>
-  </si>
-  <si>
-    <t>rt @raphael_ofcc: só ta frio pra quem não conheçe a "smirnoff "</t>
-  </si>
-  <si>
-    <t>a smirnoff que eu levei se eu tomei dois copos foi muito e durou a festa inteira,🤦🏼‍♀️</t>
-  </si>
-  <si>
-    <t>quando vcs compram o combo d absolut vem smirnoff e se compra smirnoff vem kirskoff</t>
-  </si>
-  <si>
-    <t>smirnoff é merda yeah, não bebo +</t>
-  </si>
-  <si>
-    <t>porrãn, essa smirnoff é braba kakaka https://t.co/mukc4e6bia</t>
-  </si>
-  <si>
-    <t>do nada rolou cerva e smirnoff aqui kkkk, domingo sendo domingo kkkkk</t>
-  </si>
-  <si>
-    <t>tem logo uma smirnoff e um ergetico aki ,vo faze aquela velha dose de malandro ne</t>
-  </si>
-  <si>
-    <t>@jamikkkjk com a garrafa de martini e de smirnoff</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff  +  dj cabelão do turano +  dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ? ❤</t>
-  </si>
-  <si>
-    <t>vou buscar uma smirnoff pra fazer umas caipa</t>
-  </si>
-  <si>
-    <t>queria dar uma marolada hoje, jogar umas smirnoff e uns energéticos na pista</t>
-  </si>
-  <si>
-    <t>eu não sou mais jovem pq eu olho a smirnoff e meu estomago embrulha https://t.co/iq3w5zgrvb</t>
-  </si>
-  <si>
-    <t>rt @xbiel__: paciência nós tem mas não muita.</t>
-  </si>
-  <si>
-    <t>@amandavfalves falta só duas smirnoff pra eh fica beba ouvindo este omi</t>
-  </si>
-  <si>
-    <t>eu só quero saber quem levou a smirnoff embora @kateavellar https://t.co/ovpzpg7knv</t>
-  </si>
-  <si>
-    <t>open bar de smirnoff + dj cabelão do turano + dj mv da vila ideal , na #resenhabtx dia 15 de setembro no point do m, vamos ?? "</t>
-  </si>
-  <si>
-    <t>rt @jrsantos_7: vodka de 10 é melhor que smirnoff https://t.co/wrvndwbqwe</t>
-  </si>
-  <si>
-    <t>e quem disse que não ia ter promoção?!
-a promo tá aí!! 🦄👽
-valendo:
-5 entradas
-1 combo de vodka (smirnoff) +... https://t.co/tlkuclkt0x</t>
-  </si>
-  <si>
-    <t>pedi pro yan comprar um copão pra mim ele vai lá e compra uma smirnoff e um red horse inteiro</t>
-  </si>
-  <si>
-    <t>rt @coisalinda37: dj mv da vila ideal , dj cabelão do turano, dj dg de caixas, dj nariz , dj cabelinho, e open bar de smirnoff, na #resenha…</t>
-  </si>
-  <si>
-    <t>@smirnoff_16 parece você kkkkkkk https://t.co/6ycjjt9zwo</t>
-  </si>
-  <si>
-    <t>@loolirer smirnoff e jack daniels mas eu n so rica entao so bebi as itaipava do meu pai</t>
+    <t>a fase tá foda, antes era um white horse, um red, passou p passport, depois smirnoff, depois askov, agora o velho barreiro tá chorando, kkkk</t>
+  </si>
+  <si>
+    <t>eu associo fergie com smirnoff ice</t>
+  </si>
+  <si>
+    <t>o meu amor por smirnoff ice é algo bem louco https://t.co/oz47hpzgza</t>
+  </si>
+  <si>
+    <t>rt @manoneguin: vários pensamentos bgl doido</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 fala nd não</t>
+  </si>
+  <si>
+    <t>tô virando alcoólatra mesmo. de primeira eu li smirnoff https://t.co/q3ekepdmuc</t>
+  </si>
+  <si>
+    <t>@mateeeusf mas mano, vai que 2 combos de smirnoff ajuda na hora hehe</t>
+  </si>
+  <si>
+    <t>amanhã é dia do nosso #sambinha de todo domingo 
+🚨dose tripla no combo de smirnoff 179,99
+faz contatooooo 👍🏻📲</t>
+  </si>
+  <si>
+    <t>parabéns a ganhadora do combo de smirnoff!!😍❤️
+►danyelle silva
+parabéns e boa balada!!!</t>
+  </si>
+  <si>
+    <t>te desejo sorte pq felicidade você só teria se ficasse cmg rs</t>
+  </si>
+  <si>
+    <t>justo no dia que to morrendo eu ganho uma smirnoff na taj</t>
+  </si>
+  <si>
+    <t>tem uma smirnoff  aq cheinha, mais parei de bebe😑</t>
+  </si>
+  <si>
+    <t>vó manda vim uma sky pra min  , chega de smirnoff</t>
+  </si>
+  <si>
+    <t>rt @privacidades: preciso de gente tranquila na minha vida, que me traga paz, que me traga coisas boas e acima de tudo que me acalme, não a…</t>
+  </si>
+  <si>
+    <t>rt @frasearam: eu guardo muitas coisas para mim, por que se eu contasse você não entenderia.</t>
+  </si>
+  <si>
+    <t>rt @wellitinho0: 🔛me separei - neon edition🔛
+⚠5 garotas= smirnoff⚠ 
+reserve seu camarote!!
+confirmem presença lá no nosso evento ✔
+https…</t>
+  </si>
+  <si>
+    <t>smirnoff do hd + 2 msx....quem disse que não dá? ahhahaah https://t.co/qoni6qp2qt</t>
+  </si>
+  <si>
+    <t>queria sumir um pouquinho</t>
+  </si>
+  <si>
+    <t>rt @daformiga22: meu pai comprou uma smirnoff 😴💙</t>
+  </si>
+  <si>
+    <t>16 reais uma smirnoff ice chocada</t>
+  </si>
+  <si>
+    <t>maconha eh o novo smirnoff ice https://t.co/zpxqp5okkg</t>
+  </si>
+  <si>
+    <t>smirnoff, chaski, bailanta cachengue nossa senhora</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: não gosto de falar o motivo de eu estar bravo com uma pessoa. se ela não entende as próprias atitudes, não vai entende…</t>
+  </si>
+  <si>
+    <t>smirnoff é muito bom puta que me pariu</t>
+  </si>
+  <si>
+    <t>@haubgirl_ nem terminei a primeira garrafa de smirnoff e mau consigo digitar...😘😘😘</t>
+  </si>
+  <si>
+    <t>nunca fiquei tão feliz nessa como quando os rapazes me deram a garrafa de black label e de smirnoff de presente kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>se a @ falar pra gente ficar na casa dela, eu até levo minha smirnoff pra comemorar</t>
+  </si>
+  <si>
+    <t>bebi o resto da smirnoff q tava aqui pura</t>
+  </si>
+  <si>
+    <t>ufa chegou a smirnoff aq</t>
+  </si>
+  <si>
+    <t>fomos comprar smirnoff com uns copo e era 25 conto, aí o caixa só cobrou o valor da garrafa que era 19 conto, se eu fiquei feliz, sim</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: quem menos demonstra é quem mais sente.</t>
+  </si>
+  <si>
+    <t>rt @privacidades: são poucos, mas alguns eu tenho orgulho de chamar de amigo.</t>
+  </si>
+  <si>
+    <t>@k07bg @094cupid meu @ querendo mimo e meu bro me oferecendo smirnoff
+/joga saquinho de papel fora/ /faz pose de he… https://t.co/fo2vncwziv</t>
+  </si>
+  <si>
+    <t>qualquer leonoff pro esquenta kkkk depois desce a smirnoff !!</t>
+  </si>
+  <si>
+    <t>tô com fígado fudido kkk, até smirnoff pura virei ontem</t>
+  </si>
+  <si>
+    <t>vi uma parada ai no tt e me lembrei q 1 vez fiz uma torre d latas d smirnoff ice q tinha +2m! acho q foi umas das coisas mais locas q ja fiz</t>
+  </si>
+  <si>
+    <t>vontade de abrir esse litro de smirnoff que tenho em casa e ficar bebendo sozinho kkkkkkk</t>
+  </si>
+  <si>
+    <t>@lorenagezuis acho q vou virar aqle negocio do smirnoff kkkkk</t>
+  </si>
+  <si>
+    <t>rt @adrielly_crf: contagem regressiva, amanhã filha chora e mãe não vê no nosso #sabadô 🙈
+✅ cerveja antártica 2,00
+✅ combo de smirnoff r$…</t>
+  </si>
+  <si>
+    <t>lularápio e querida entre osama bin laden e saddam hussein...
+parabéns moonspellofficialband pelo excelente vídeo!!! https://t.co/uxnxr0oumm</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 tem comida, refrigerante e eu</t>
+  </si>
+  <si>
+    <t>peguei uma latinha de smirnoff na geladeira e vim pro quarto, to me sentindo mto rbd</t>
+  </si>
+  <si>
+    <t>quando vc vai em uma festa q a lembrancinha é uma garrafa de smirnoff, tá repreendido tô levando umas 5 pra casa 😂</t>
+  </si>
+  <si>
+    <t>tem uma smirnoff na geladeira, scr</t>
+  </si>
+  <si>
+    <t>bebi várias smirnoff</t>
+  </si>
+  <si>
+    <t>rt @pqprevi: parabéns pra quem invento os beijo na boca</t>
+  </si>
+  <si>
+    <t>rt @maezonabolada: você não é todo mundo</t>
+  </si>
+  <si>
+    <t>rt @valorizarei: é muito estresse para pouca idade.</t>
+  </si>
+  <si>
+    <t>que jogo foi aquele ontem, foi dado metade da garrafa de smirnoff kkkkkkkkk de shotttttt</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: quem nunca pensou em desativar todas as redes sociais e viver mais intensamente, aproveitar cada segundo, se libertar…</t>
+  </si>
+  <si>
+    <t>a smirnoff ta fortalecendo muitooo</t>
+  </si>
+  <si>
+    <t>rt @divadsite_: meu pensamento já está la no carnaval</t>
+  </si>
+  <si>
+    <t>rt @claradeodato: @analua06 se bah tomo o resto de smirnoff que tem aqui, deixaram um energético na geladeira mesmo</t>
+  </si>
+  <si>
+    <t>vou fazer um negócio maneiro na resenha, a mina que mais dançar vai ganhar um red é uma smirnoff, ainda ganha um bk...</t>
+  </si>
+  <si>
+    <t>uma garrafa de smirnoff na minha frente e eu não posso beber 🙄</t>
+  </si>
+  <si>
+    <t>sexta feira e eu em casa, sou pra casar</t>
+  </si>
+  <si>
+    <t>rt @jcleiton_: mentir????????????????????? to fora 
+pego minha sinceridade e vou embora</t>
+  </si>
+  <si>
+    <t>rt @sigaonze20: deus obrigado por mais um dia</t>
+  </si>
+  <si>
+    <t>os mlks me foderam dando catuaba com smirnoff pra eu beber</t>
+  </si>
+  <si>
+    <t>rt @uebrisei: mentir????????????????????? to fora 
+pego minha sinceridade e vou embora</t>
+  </si>
+  <si>
+    <t>#sabadosdev8 🔥💣 sab 16 !!
+anticipadas $70 + promos de jager, absolut, smirnoff, champagne,… https://t.co/utjftlmy18</t>
+  </si>
+  <si>
+    <t>rt @sabanbriann: sed de smirnoff con citriç ❤</t>
+  </si>
+  <si>
+    <t>minha mae me dando uma garrafinha de smirnoff pra beber que milagre é esse</t>
+  </si>
+  <si>
+    <t>rt @divadsite: se teu hobby é beber... me chama</t>
+  </si>
+  <si>
+    <t>rt @joaopedro8130: chama o raul, pede pra não esquecer a smirnoff e o red bull</t>
+  </si>
+  <si>
+    <t>todo mundo lá com catuaba na mão smirnoff e essas porra aí e eu com meu refri de boas</t>
+  </si>
+  <si>
+    <t>buscamos uma garrafa de smirnoff a 20 no boteco no meio da madrugada, muito lucrativo</t>
+  </si>
+  <si>
+    <t>toda sextachera tem q ter umas smirnoff, tem q ter haha</t>
+  </si>
+  <si>
+    <t>rt @romancesjovens: eu queria poder te ver todos os dias.</t>
+  </si>
+  <si>
+    <t>rt @feitopraela: quero te beijar agora.</t>
+  </si>
+  <si>
+    <t>n to entendendo pq eu to ficando desanimado pra sair</t>
+  </si>
+  <si>
+    <t>rt @citousabia_: ninguém passa pela tua vida por engano..</t>
+  </si>
+  <si>
+    <t>eu só sei que, alguém me deu um banho de smirnoff</t>
+  </si>
+  <si>
+    <t>rt @love4camila5h: chau me volo todo https://t.co/0eiwhhchh7</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: já sorri do nada, pensando em você.</t>
+  </si>
+  <si>
+    <t>rt @eduardo1rangel: bom dia, hoje tem a melhor da cidade com a melhor equipe de funk furacão 2000(promoção) combo de smirnoff 160,00 e cerv…</t>
+  </si>
+  <si>
+    <t>rt @feitopraela: você devia tá aqui cuidando de mim.</t>
+  </si>
+  <si>
+    <t>rt @mcltaaibb: se a pessoa é feliz sem você, seja feliz sem ela.</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: eu não esqueço. eu arquivo.</t>
+  </si>
+  <si>
+    <t>eu+bad+smirnoff. td bem boa noite</t>
+  </si>
+  <si>
+    <t>se vocês amam a vida de vocês 
+não misturem bebidas
+muito menos
+smirnoff com jack e jager e ainda por cima fumar maconha
+vcs vão morrer</t>
+  </si>
+  <si>
+    <t>hj vou vender 4 skol por 10,00
+combo de askov ou balalaika 25,00
+combo de smirnoff 45,00
+6 garam por apenas 5,00
+te espero no rolê ;)</t>
+  </si>
+  <si>
+    <t>melhor preço que voce pode encontrar!!!
+smirnoff + 6 red bulls = 100,00$
+entregas em toda zona sul.
+(21)2137-9544 o… https://t.co/mtu7gvxuge</t>
+  </si>
+  <si>
+    <t>🔥💣 sab 16 !!
+anticipadas $70 + promos de jager, absolut, smirnoff, champagne, fernet, gancia, cerveza ⬅
+📲2954 65885… https://t.co/pjisxfcwza</t>
+  </si>
+  <si>
+    <t>@isadora_segata parceira da smirnoff kakakaka, gosto muito de ti e te acho muito linda😘❤</t>
+  </si>
+  <si>
+    <t>rt @leandrojr31: só smirnoff ai neném 🍻🙈</t>
+  </si>
+  <si>
+    <t>essa porra daquela smirnoff naquelas caixinhas é muito ruim, tô passando mal pra cacete 😪</t>
+  </si>
+  <si>
+    <t>ano do céu, nunca compre. smirnoff x1 é horrível</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: pra que a pressa, se o futuro é a morte.</t>
+  </si>
+  <si>
+    <t>rt @fiquemos: ninguém conseguiu me ter como você me tem.</t>
+  </si>
+  <si>
+    <t>rt @citousabia_: na vida, você tem duas opções: sentir falta, ou fazer falta!!</t>
+  </si>
+  <si>
+    <t>@walkingfla caipirinha de smirnoff</t>
+  </si>
+  <si>
+    <t>meu primo falo que se corinthians não fizer 1 gol no 1° tempo, eu viro uma dose de vodka smirnoff pura, caso contrário ele que vai virar...</t>
+  </si>
+  <si>
+    <t>rt @storchhh: não tem coisa melhor do que conversar com uma pessoa q te faz bem né</t>
+  </si>
+  <si>
+    <t>rt @oficialmcth: o que fica no sigilo, realmente acontece de novo..</t>
+  </si>
+  <si>
+    <t>queria dizer que eu estava com preguiça de ir na city hoje, mas a ka ganhou uma smirnoff vou sim ou claro?</t>
+  </si>
+  <si>
+    <t>smirnoff melhor vodkinha né</t>
+  </si>
+  <si>
+    <t>@leomedeiros013 acho q o corretor fez errado,n e smirnoff?</t>
+  </si>
+  <si>
+    <t>descobri que cheetos n combina com smirnoff ice</t>
+  </si>
+  <si>
+    <t>rt @oclecioj: relacionamento bom, é aquele onde o casal soma, multiplica e cresce junto um com o outro.</t>
+  </si>
+  <si>
+    <t>@tuliovieira97 traz um carlton p mim faço um caipvodka p tu smirnoff geladona</t>
+  </si>
+  <si>
+    <t>aqui em casa tem uma vodka e uma smirnoff e eu não posso beber</t>
+  </si>
+  <si>
+    <t>essa smirnoff salvou</t>
+  </si>
+  <si>
+    <t>rt @vocenaosabiaq: psicologicamente, depois de ser decepcionado tantas vezes, você começa a perder a esperança em tudo.</t>
+  </si>
+  <si>
+    <t>chama o raul, pede pra não esquecer a smirnoff e o red bull</t>
+  </si>
+  <si>
+    <t>@srtarousey tem k.o nao kkkkk duas smirnoff pra voce sem stress</t>
+  </si>
+  <si>
+    <t>@smirnoffbrasil acabei de comprar 2 smirnoff ice e ao abrir notei a coloração mais clara, mas ignorei o fato! conti… https://t.co/fnxre4c7ez</t>
+  </si>
+  <si>
+    <t>rt @anorexxxicqueen: queria um litro de smirnoff agora pra beber todinho enquanto choro</t>
+  </si>
+  <si>
+    <t>rt @1kilorecito: é muita gente fingindo que se importa.</t>
+  </si>
+  <si>
+    <t>tô meio puto com a vida, chamar o bro @ko4n7 pra tomar smirnoff e tenho dito q</t>
+  </si>
+  <si>
+    <t>esses cara só quer saber de kriskof mano
+nem pra uma orloff smirnoff num serve</t>
+  </si>
+  <si>
+    <t>rt @casalfalando: eu não digo é nada</t>
+  </si>
+  <si>
+    <t>rt @costagoid: tudo parece ser tão fácil pra quem não tá sentindo.</t>
+  </si>
+  <si>
+    <t>tem umas smirnoff e um energético fechado aqui em casa e eu não posso beber 😑</t>
+  </si>
+  <si>
+    <t>queria ta na praia agr</t>
+  </si>
+  <si>
+    <t>rt @vulgomv7: meu maior problema é ficar tentando enxergar lado bom em quem não tem</t>
+  </si>
+  <si>
+    <t>rt @otariano: quando alguem se afastava de 
+mim antes / hoje https://t.co/q2lesg0uo0</t>
+  </si>
+  <si>
+    <t>o dindo deu 70 reais pra dinda e eu ir no celeiro e adivinha oq a gente compro? 1 smirnoff, 1 catuaba, e cerveja desesperadokkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>lula manda mensagem de solidariedade a garotinho:
+- tô chegando queridooooooooooo!!!! https://t.co/1kcqotd39b</t>
+  </si>
+  <si>
+    <t>já viu a boa de hoje ? 
+grupo decisão no
+barraco rocinha 
+combo de smirnoff  r$ 70,00 
+combo de… https://t.co/at95wqnzwx</t>
+  </si>
+  <si>
+    <t>nem to acreditando que minha vó comprou uma garrafa de smirnoff pra mim ❤❤</t>
+  </si>
+  <si>
+    <t>bom diaaa!!!!
+hoje tem
+combo de smirnoff r$ 59,00
+ e dose tripla de drinks 😱😱😱😱 https://t.co/jbeilkfojw</t>
+  </si>
+  <si>
+    <t>mó vontade de tomar smirnoff</t>
+  </si>
+  <si>
+    <t>rt @recitouoriente: se não vai somar, nem entra na conta.</t>
+  </si>
+  <si>
+    <t>@bectannos made in roça kkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>rt @dougraz: vacilou cmg eu finjo q perdoei mas guardo rancor sim
+na próxima discussão, eh como já dizia a anitta
+se prepara q eu vo joga b…</t>
+  </si>
+  <si>
+    <t>sexta vou busca minha absolut e umas duas smirnoff p aniversário da minha irmã</t>
+  </si>
+  <si>
+    <t>rt @gabriel_oreo: pensa num enfeite https://t.co/x0idomoyru</t>
+  </si>
+  <si>
+    <t>rt @davidson_revel: 🔛me separei - neon edition🔛
+⚠5 garotas= smirnoff⚠ 
+confirmem presença lá no nosso evento ✔
+https://t.co/ihfpvf3kj5 ht…</t>
+  </si>
+  <si>
+    <t>:tem as coisas pra fazer o de sempre?
+tati tia ♡: o que precisa?
+: smirnoff vodka, leite condensado e suco de morango
+tati tia ♡: tem 😍😌😝</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 eu tava jogando fdp</t>
+  </si>
+  <si>
+    <t>quando eu lembro que meu amg quebrou minha smirnoff chega dói meu coração 💔</t>
+  </si>
+  <si>
+    <t>ultima vez que eu fiz isso, foi quando estava eu, carol, daiane, duda e  maluh  no jardim bebendo smirnoff, 16:00 da tarde kkkkkk</t>
+  </si>
+  <si>
+    <t>vontade é n ir pra aula amanha, so queria ficar o dia inteiro deitado ou com uma smirnoff, esquecendo a merda q to sentindo.</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 meu sonho</t>
+  </si>
+  <si>
+    <t>rt @vsvp6ix: mt fé</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: — quem ama perdoa. 
+— e quem ama não trai.</t>
+  </si>
+  <si>
+    <t>chegou uma nova smirnoff de açaí com 46% de álcool, então né, fígado aguenta firme</t>
+  </si>
+  <si>
+    <t>rt @freshfrontal: "se eu n falar cntg vc nem chama né" 
+realmente</t>
+  </si>
+  <si>
+    <t>smirnoff não é tão bom puro não</t>
+  </si>
+  <si>
+    <t>kela smirnoff só pra nao perde o costume kkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 @pwxwx @maryannarsf kkkkkk paz rapaziada</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 ta a onde amigo?</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 @whiversonr @icarotoddy nunca fui</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: confiança é a base de tudo.</t>
+  </si>
+  <si>
+    <t>meu pai dizendo que vai me dar um baldinho de smirnoff pra comemorar hoje kkkkkkkk ❤</t>
+  </si>
+  <si>
+    <t>rt @letrasum44k: nem tudo é como a gente quer...</t>
+  </si>
+  <si>
+    <t>@flamengo @ribasdiego10 é, tite anda tomando uns carabao com smirnoff... https://t.co/s05z4wafe3</t>
+  </si>
+  <si>
+    <t>rt @gazettetweetbr: kai: nem são 7 da manhã e o aoi ta cantando "you are my sunshine" pra garrafa de smirnoff https://t.co/v30swuorng</t>
+  </si>
+  <si>
+    <t>@evaldtdudu não, dá smirnoff mesmo</t>
+  </si>
+  <si>
+    <t>@cindysilva__ se quiser te dou até uma de smirnoff. 19 aninhos né, tem que comemorar com estilo.</t>
+  </si>
+  <si>
+    <t>krlh,de onde saiu tanta smirnoff? to mt emocionado...</t>
+  </si>
+  <si>
+    <t>rt @1kilorecito: tudo depende da importância que você dá.</t>
+  </si>
+  <si>
+    <t>@sagacidademnr @smirnoff_16 acontece</t>
+  </si>
+  <si>
+    <t>@helogrillo eu juro que li smirnoff</t>
+  </si>
+  <si>
+    <t>estou dando smirnoff pro meu primo q nunca bebeu, espero q não de merda 😂😂😂</t>
+  </si>
+  <si>
+    <t>rt @eduardo___2d: foi olhar o celular// não achou nada kkkkkk 😂 https://t.co/actichkwoy</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 igualzinha euuuuh 😂😂😂</t>
+  </si>
+  <si>
+    <t>rt @tranquilizado: ter intimidade pra falar sobre tudo com alguém é muito bom</t>
+  </si>
+  <si>
+    <t>rt @rraissao: @cindysilva__ se quiser te dou até uma de smirnoff. 19 aninhos né, tem que comemorar com estilo.</t>
+  </si>
+  <si>
+    <t>acho q hj vou comprar aquele x1 da smirnoff</t>
+  </si>
+  <si>
+    <t>nosso amigo iuri ta perdido na putaria,fala ai @smirnoff_16</t>
+  </si>
+  <si>
+    <t>pra hoje era só uma smirnoff e um energetico</t>
+  </si>
+  <si>
+    <t>🔛me separei - neon edition🔛
+⚠5 garotas= smirnoff⚠ 
+reserve seu camarote!!
+confirmem presença lá no nosso evento… https://t.co/bekowakqsd</t>
+  </si>
+  <si>
+    <t>rt @vandbadbr: tem coisas na vida que se a gente não arriscar como vai saber se vai dar certo ou não?</t>
+  </si>
+  <si>
+    <t>rt @azeved0g: 🔛me separei - neon edition🔛
+⚠5 garotas= smirnoff⚠ 
+confirmem presença lá no nosso evento ✔https://t.co/ncktkh2j0q https://t…</t>
+  </si>
+  <si>
+    <t>faz aniversário nessa semana? 
+comemore no maia club hoje e ganhe até 3 garrafas de smirnoff 🎉✔️
+só chamar 9 6069-1705 ✅</t>
+  </si>
+  <si>
+    <t>rt @instagranzin: acho que a pior coisa do mundo é implorar atenção.</t>
+  </si>
+  <si>
+    <t>soltaram a verba p 2 smirnoff, 1 bata turbinada e algumas coisinhas mais pra frente kkkkk🚅  vrauzada</t>
+  </si>
+  <si>
+    <t>rt @marcos_eobichoo: gente é de graça vcs serem sinceros com amizades e relacionamentos, sem joguinhos psicológicos, indiretas e desvaloriz…</t>
+  </si>
+  <si>
+    <t>ldrv me faz lembrar de umas coisas sensacionais
+tipo meu primeiro pt que foi de smirnoff com schweppes</t>
+  </si>
+  <si>
+    <t>dica prime:
+não misturem beats, smirnoff e itaipava</t>
+  </si>
+  <si>
+    <t>@lucasvei_ @kvrollvvz paz o caralho, ta fudido, falando em beber a smirnoff x1 ta 15 pila no postin da lama</t>
+  </si>
+  <si>
+    <t>comprei 3 garrafas d vodka smirnoff e 5 baldes d red no aniversário  do marido da val na 021.agr n consigo dormir por causa do energético! 😩</t>
+  </si>
+  <si>
+    <t>rt @thetomlinsonl: "lembre-se... quanto mais você pesa é mais difícil de ser sequestrado... fique seguro... coma bolo" https://t.co/8dllnnd…</t>
+  </si>
+  <si>
+    <t>#sabadosdev8 🔥💣 sab 16 !!
+antis $70 + promos de jager, absolut, smirnoff, champagne, fernet, gancia, cerveza 📲29545… https://t.co/yy36ro4jxu</t>
+  </si>
+  <si>
+    <t>crl mandei vim logo uma caixa fechada de smirnoff pra manha vagabundo vai fica maal 😂😂</t>
+  </si>
+  <si>
+    <t>rt @cielly_sant: dose dupla de budweiser e antártica até 00:30
+combos de smirnoff e red label com ótimos preços 💥
+ isso bb
+#falta2dias #oba…</t>
+  </si>
+  <si>
+    <t>até agr já ganhei 3 smirnoff, duas catuaba e uma garrafa de josé cuervo</t>
+  </si>
+  <si>
+    <t>mau chegou e já partiu para voos mais altos...mas sempre será uma mosher!!!</t>
+  </si>
+  <si>
+    <t>ouvindo sertanejo, tomando smirnoff com trink, tudo tranquilho</t>
+  </si>
+  <si>
+    <t>sábado ta chegandoooooo
+- grupo vou pro sereno
+- balde antártica 39 r$
+- garrafa smirnoff 39… https://t.co/lofcp2jfy0</t>
+  </si>
+  <si>
+    <t>crlh, tava lembrando do dudu no aniversário da jennifer, geral levando smirnoff e ele levou caninha da roça kkk</t>
+  </si>
+  <si>
+    <t>@maiochigu próximo é uma smirnoff 🚼</t>
+  </si>
+  <si>
+    <t>uma askov, pega um cantinho, paga 10 reais no litrao é a mesma coisa que pagar 40 na smirnoff ou 13 reais no litrao só pq o bar é "melhor"</t>
+  </si>
+  <si>
+    <t>🍻produto: smirnoff 
+💸valor r$:29,99
+📍local: adega los ninos
+📆postado em:15/9
+📣quem for no local… https://t.co/euquqasty9</t>
+  </si>
+  <si>
+    <t>rt @monikatthais: mó vontade de tomar smirnoff</t>
+  </si>
+  <si>
+    <t>rt @citouoprojota: será que eu tento de novo, ou desisto de vez?</t>
+  </si>
+  <si>
+    <t>dos mesmos criadores de novalgina com slova vem ai: tylenol com smirnoff https://t.co/bhsruc3gd1</t>
+  </si>
+  <si>
+    <t>rt @hfeministas: project s         
+sagu✌🏽
+sauna🌫
+seis é par🔥
+suruba👹
+sexo👉👌
+semen💦
+sol☀️
+som🎶
+stella🍻
+smirnoff🍸
+sera que vai dar ruim?👀🙈 h…</t>
+  </si>
+  <si>
+    <t>@mousseveloso vai fundo lek</t>
+  </si>
+  <si>
+    <t>@caioseven07 cara piou com 30 caixinha daquelas da smirnoff mermao kkkkkkkk</t>
+  </si>
+  <si>
+    <t>rt @citouoprojota: dizem que o tempo resolve tudo, mas a questão é: quanto tempo?</t>
+  </si>
+  <si>
+    <t>rt @orlaold: as vezes ficar no tt é melhor q responder certas pessoas no wpp</t>
+  </si>
+  <si>
+    <t>rt @pwxwx: @maryannarsf @smirnoff_16 @juniorseumerda agressiva ela ( vcs são lindos, shippo )</t>
+  </si>
+  <si>
+    <t>rt @19dascriancas: namorar só vale a pena se for com alguém q te faça olhar pra trás e agradecer por não ter dado certo com ninguém antes</t>
+  </si>
+  <si>
+    <t>rt @reinatos: oi vc que me encarou na rua vamos casar e ter uma casa afastada da cidade com 4 filhos e 2 cachorros?</t>
+  </si>
+  <si>
+    <t>meu sonho de princesa é quebrar uma garrafa de smirnoff na cabeça de alguém</t>
+  </si>
+  <si>
+    <t>meu pai deixou eu tomar a smirnoff que tava na geladeira, quase nem amo😋❤</t>
+  </si>
+  <si>
+    <t>@wuhgo mas é melhor q smirnoff</t>
+  </si>
+  <si>
+    <t>rt @divadsite_: consideração não se cobra, mas da um aperto no coração quando vc faz tudo por alguém e a pessoa não faz nada por vc</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: teu abraço faz falta.</t>
+  </si>
+  <si>
+    <t>@vinioverni leva as smirnoff q tem na sua casa</t>
+  </si>
+  <si>
+    <t>#sabadosdev8 🔥💣 sab 16 !!
+antis $70 + promos de jager, absolut, smirnoff, champagne, fernet, gancia, cerveza 📲29545… https://t.co/ngbec80gf6</t>
+  </si>
+  <si>
+    <t>rt @medeirosweleson: quem não sabe o que quer, perde o que tem</t>
+  </si>
+  <si>
+    <t>rt @uebrisei: deu prioridade, tem prioridade</t>
+  </si>
+  <si>
+    <t>meu pai comprando vinho e smirnoff ice pra mim que milagre divino é esse</t>
+  </si>
+  <si>
+    <t>dois baldes de jack daniela e um de smirnoff e a festa tava ruim</t>
+  </si>
+  <si>
+    <t>@whiversonr em casa</t>
+  </si>
+  <si>
+    <t>minha mae jogou fora 1 smirnoff e 2 orloff... crl n to acreditando</t>
+  </si>
+  <si>
+    <t>só smirnoff ai neném 🍻🙈</t>
+  </si>
+  <si>
+    <t>o mal de algumas pessoas e levar um fora e sair dizendo q n pegou pq n quis</t>
+  </si>
+  <si>
+    <t>essa ice da smirnoff é muito boa ❤</t>
+  </si>
+  <si>
+    <t>gosta de quem? — da smirnoff  https://t.co/zfo3m0bvuz</t>
+  </si>
+  <si>
+    <t>rt @privacidades: a verdade não está no que você diz, e sim no que você faz.</t>
+  </si>
+  <si>
+    <t>não tenho animo pra nada</t>
+  </si>
+  <si>
+    <t>rt @1kilorecito: esqueça quem te esqueceu.</t>
+  </si>
+  <si>
+    <t>a culpa é sua por ter esse sorriso ou a culpa é minha por me apaixonar por ele</t>
+  </si>
+  <si>
+    <t>as absolut e smirnoff nem deram p nada kkkk</t>
+  </si>
+  <si>
+    <t>aqualange modelo novo com o fundo flourescente, smirnoff na mao ea fumaça na mente, alguns c boné pra frente outros com boné pra tras-kauan</t>
+  </si>
+  <si>
+    <t>tenho 2 smirnoff aqui em casa ainda</t>
+  </si>
+  <si>
+    <t>se quiser ficar eu agarro e não solto, mas se quiser ir que faça uma boa viagem.</t>
+  </si>
+  <si>
+    <t>@souza_chefinho @joaovitor_rn mas aí da pra nós comprar bglh bom, pp de smirnoff e tal</t>
+  </si>
+  <si>
+    <t>rt @iloveputarias: deveríamos estar se beijando agora</t>
+  </si>
+  <si>
+    <t>maconheiro 2017 e foda https://t.co/knaahmaqzh</t>
+  </si>
+  <si>
+    <t>smirnoff é sprite ne menina</t>
+  </si>
+  <si>
+    <t>rt @isadora_segata: @miguel_ferreirx companheiro lindo de smirnoff, tu é fera 💕</t>
+  </si>
+  <si>
+    <t>@pwxwx @juniorseumerda @maryannarsf estraga prazeres</t>
+  </si>
+  <si>
+    <t>smirnoff como sempre me deixa com sono tenso</t>
+  </si>
+  <si>
+    <t>to eu suavão aqui jogando uma flex, e minha mãe abre a porta com uma porção de batata frita com ketchup e uma smirnoff ice, ai é humilde mãe</t>
+  </si>
+  <si>
+    <t>smirnoff, jack e jager eu sabia que ia da merda.... perdão pra quem me aguentou ontem/hj</t>
+  </si>
+  <si>
+    <t>rt @citouoprojota: aprendi o que era certo, com a pessoa errada.</t>
+  </si>
+  <si>
+    <t>gripe maldita!! só queria pra hoje um combinho de smirnoff, gg, ll e cair pro bailão</t>
+  </si>
+  <si>
+    <t>rt @privacidades: não adianta só pedir pra deus, tem que agradecer também.</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 @porque_garotaa mana, somos nós kk</t>
+  </si>
+  <si>
+    <t>pegou quem na soci ontem? — peguei vários copos de schweppes com smirnoff/komar... https://t.co/yvbwhkk1nk</t>
+  </si>
+  <si>
+    <t>@_bielrj @wtfbarros nem pra ganhar uma garrafa de smirnoff c moscowita dentro kkk ou a entrada grátis</t>
+  </si>
+  <si>
+    <t>rt @iloveputarias: a cara é de mocinha mas a sentada é de cavala</t>
+  </si>
+  <si>
+    <t>rt @coracaoflorido: de valor em quem te ama
+porque a saudade...
+não traz ninguém de volta.</t>
+  </si>
+  <si>
+    <t>rt @oliveiiir4: no amor, quem dá mais, perde!</t>
+  </si>
+  <si>
+    <t>rt @lauticarrica: #sabadosdev8 🔥💣 sab 16 !!
+antis $70 + promos de jager, absolut, smirnoff, champagne, fernet, gancia, cerveza 📲2954569827…</t>
+  </si>
+  <si>
+    <t>rt @relatojovens: se jesus está comigo, contra mim ninguém será.</t>
+  </si>
+  <si>
+    <t>rt @itscxx: maconha eh o novo smirnoff ice https://t.co/zpxqp5okkg</t>
   </si>
   <si>
     <t>Teste</t>
   </si>
   <si>
-    <t>ex bom é smirnoff ice
-numa balada nice</t>
-  </si>
-  <si>
-    <t>amanhã tem uma festa top,6 barril de chopp,várias smirnoff whisky festa de rico mesmo 😀</t>
-  </si>
-  <si>
-    <t>bebi três garrafinhas de smirnoff ice com minha mãe, que delícia</t>
-  </si>
-  <si>
-    <t>rt @letrasum44k: e a vida vem dizendo pra mim não confia nos outros</t>
-  </si>
-  <si>
-    <t>15 setembro / #resenhabtx / point do m / dj mv da v.i / dj cabelão do turano /open bar smirnoff/ energético/ caipirinha/ gummy / homens 25</t>
-  </si>
-  <si>
-    <t>rt @correacamila12: comprei uma garrafa de smirnoff pro final de semana kkk</t>
-  </si>
-  <si>
-    <t>porra, lukas esqueceu a garrafa de smirnoff cheia na abs tnc 😂😂👊</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff ®</t>
-  </si>
-  <si>
-    <t>depois tomar aquela famosa smirnoff...</t>
-  </si>
-  <si>
-    <t>não recomendo misturar askov de maracujá com smirnoff de pêssego, corote de limão, corote de morango, skol beats e vodka com tubaina...😖😴</t>
-  </si>
-  <si>
-    <t>só de pensar que deixei uma smirnoff cheinha no armazém da uma dor no coração</t>
-  </si>
-  <si>
-    <t>aquela smirnoff misturada é horrível scr</t>
-  </si>
-  <si>
-    <t>tô cm duas smirnoff aq as duas pela metade, tô quase bebendo essa merdaaaaaa</t>
-  </si>
-  <si>
-    <t>pararam de fabricar smirnoff no brasil e nem assim</t>
-  </si>
-  <si>
-    <t>tem uma smirnoff falto o energético</t>
-  </si>
-  <si>
-    <t>wla eh tao linda tao gentil tao maravilhosa puta q pariu enfia uma smirnoff no meu cu e me chama d madame eu to mt felizzzzz</t>
-  </si>
-  <si>
-    <t>nao creio que quebraram 1litroo de smirnoff ....</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff '</t>
-  </si>
-  <si>
-    <t>nana, elaine e eu resolvemos jogar baralho apostando doses de smirnoff.
-jogamos até a garrafa secar.
-que noite.
-e que casal 💙</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff ®•</t>
-  </si>
-  <si>
-    <t>melhores bebidas ? — sky, smirnoff, rajska, toddynho https://t.co/gjutgbcspm</t>
-  </si>
-  <si>
-    <t>festa do grupo de futebol aqui em santíssimo ta cheio de smirnoff e selvagem 😋😍</t>
-  </si>
-  <si>
-    <t>alguem sabe se aquelas smirnoff q parece caixinha de suco são boas</t>
-  </si>
-  <si>
-    <t>dia 15 de setembro todos os caminhos te levam para #resenhabtx com dj cabelão do turano + dj mv da vila ideal + open bar de smirnoff ®,</t>
-  </si>
-  <si>
-    <t>voltei pra casa com 4 garafas de smirnoff</t>
-  </si>
-  <si>
-    <t>ontem foi histórias tristes quando a mina derrubou a smirnoff</t>
-  </si>
-  <si>
-    <t>rt @revitalizada: diogo quer comprar smirnoff kkkkkkkk mal sabe q meus amigos bebem caninha da roça/51</t>
-  </si>
-  <si>
-    <t>rio, 7:19 da manhã.
-3 jovens adultos invadem padaria portando um balde da antartica e compram 2 rbull e smirnoff. saem cantando 'despacito'</t>
-  </si>
-  <si>
-    <t>to dividingo uma smirnoff com a minha mae</t>
-  </si>
-  <si>
-    <t>meu primo bebeu smirnoff de limão achando que era suco e ficou bêbado, tô rindo mais do que deveria kkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>atr o no ? @smirnoff_arg</t>
-  </si>
-  <si>
-    <t>rt @aanii13: só vou rebolar o 🆒 , daqui a 2 meses ! então fiquem com os vídeos que tenho no cel , q não são poucos hahah https://t.co/xbsrr…</t>
-  </si>
-  <si>
-    <t>smirnoff de açaí. 👀</t>
-  </si>
-  <si>
-    <t>eu amei mt o garoto da smirnoff socorro ri mt kkkkkkkkk</t>
-  </si>
-  <si>
-    <t>vei ontem secamos uma garrafa de    smirnoff e de bananinha, e ainda saímos pra comprar beats... meu saldo atual é 0 r$</t>
-  </si>
-  <si>
-    <t>gabriel saiu dq mt bebo kkkkkk, bebeu meia garrafa de vodka smirnoff rindo mt</t>
-  </si>
-  <si>
-    <t>rt @flamenguista_07: tô tão tempo sem beber, que tô achando vodka smirnoff com energético ruim pra porra</t>
-  </si>
-  <si>
-    <t>ainda faltou a smirnoff de caixinha pra nós tomar</t>
+    <t>conhece?
+não???
+ice age, banda sueca de thrash metal...altamente recomendado! https://t.co/5sapemfye4</t>
+  </si>
+  <si>
+    <t>rt @conspirou: saudades dói pra caralho mano.</t>
+  </si>
+  <si>
+    <t>rt @complicarei: vcs tbm tem dificuldade em acreditar quando alguém fala que gosta de vc ou q se importa ????</t>
+  </si>
+  <si>
+    <t>rt @eaaibella: fomos comprar smirnoff com uns copo e era 25 conto, aí o caixa só cobrou o valor da garrafa que era 19 conto, se eu fiquei f…</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 vc é foda</t>
+  </si>
+  <si>
+    <t>falei que não tomava mais vodka e tô com 2 smirnoff</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: o orgulho te ensina a ter amor próprio.</t>
+  </si>
+  <si>
+    <t>o aniversário é nosso e quem ganha o presente é você!
+valendo 1 camarote com 12 pulseiras + 1 litro de smirnoff... https://t.co/rzdlb8qurd</t>
+  </si>
+  <si>
+    <t>rt @citousabia_: fez? não espalha. 
+não fez? não inventa.</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: quando é pra ser, o destino dá um jeito.</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: ela gosta dele. 
+ele gosta dela. 
+todos sabem, menos eles.</t>
+  </si>
+  <si>
+    <t>rt @biaafigueiredo1: vic mansano💖: aquele dia do taxi
+vic mansano💖: não era eu
+vic mansano💖: era a smirnoff
+vic mansano💖: apenas</t>
+  </si>
+  <si>
+    <t>uma noite resumida em: smirnoff, pt no mc, pedir p taxista parar pra vomitar, perder o celular na frente de casa</t>
+  </si>
+  <si>
+    <t>meu core ainda ta doendo pela smirnoff q quebrou</t>
+  </si>
+  <si>
+    <t>@nkordeiregui kkkkk se for smirnoff, a de manga c/ pimenta é uma delícia. e skol beats secrets, tomo como se fosse água</t>
+  </si>
+  <si>
+    <t>tem um fardo de smirnoff aqui em casa, oiturobom?!</t>
+  </si>
+  <si>
+    <t>pobre campbell dejara de beber para comprarle smirnoff a su culito hahahaha</t>
+  </si>
+  <si>
+    <t>🔛me separei - neon edition🔛
+⚠5 garotas= smirnoff⚠ 
+reserve seu camarote!!
+confirmem presença lá no nosso evento… https://t.co/x0er7h29d0</t>
+  </si>
+  <si>
+    <t>tive que abrir minha bebida de fresco vulgo smirnoff ice pra beber</t>
+  </si>
+  <si>
+    <t>ainda bem que o joão comprou smirnoff e um energético vulcano, só isso que me acalmou mesmo</t>
+  </si>
+  <si>
+    <t>já viu a boa de amanhã ? 😱🍾
+combo de smirnoff r$ 70,00 
+combo de red label + 5 energéticos vrauu… https://t.co/uglizprill</t>
+  </si>
+  <si>
+    <t>rt @frasesdebebada: o mundo da vodkas</t>
+  </si>
+  <si>
+    <t>@softktaetae bebeu smirnoff né alcoólatra</t>
+  </si>
+  <si>
+    <t>peguei um copo de gelo com suco de limão pra fingir que é uma smirnoff bem gelada que vai me deixar bêbado</t>
+  </si>
+  <si>
+    <t>apaixonado total pela smirnoff ice. pode me julgar como "bêbado iniciante" hahaha... https://t.co/jmelk7ajro</t>
+  </si>
+  <si>
+    <t>rt @ericabroll: @jhonatancolla18 ma vamo acabar com aquelas smirnoff hj</t>
+  </si>
+  <si>
+    <t>rt @1kilorecito: minha mente é mó confusão</t>
+  </si>
+  <si>
+    <t>smirnoff ice é bom dms</t>
+  </si>
+  <si>
+    <t>@jhonatancolla18 ma vamo acabar com aquelas smirnoff hj</t>
+  </si>
+  <si>
+    <t>@analua06 se bah tomo o resto de smirnoff que tem aqui, deixaram um energético na geladeira mesmo</t>
+  </si>
+  <si>
+    <t>só o $ que eu e ele vai gastar comprando energético, prefiro pegar um combo de smirnoff com vibe, e gelo, compro vários gg e vamos pra praia</t>
+  </si>
+  <si>
+    <t>putinha https://t.co/abcbvo6m4s</t>
+  </si>
+  <si>
+    <t>@sagacidademnr rápido em kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>rt @mcleduardo: crlh, tava lembrando do dudu no aniversário da jennifer, geral levando smirnoff e ele levou caninha da roça kkk</t>
+  </si>
+  <si>
+    <t>rt @letrasum44k: quando tu gosta, não vê graça em mais ninguém. é incrível!</t>
+  </si>
+  <si>
+    <t>rt @citouoprojota: felizes são aqueles que não se apegam.</t>
+  </si>
+  <si>
+    <t>rt @mauronakada: só vo fala uma coisa
+nem vo fala nada</t>
+  </si>
+  <si>
+    <t>vou tomar uns gole de smirnoff pra ver se minha noite melhora</t>
+  </si>
+  <si>
+    <t>aonde vou rasgar meu dinheiro e beber essa smirnoff que ta aqui em casa hoje??????????????????</t>
+  </si>
+  <si>
+    <t>quero matar esse garrafa de smirnoff antes de ir pra rua 😂</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 n marquei ngm kkkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: a vida não nos ensina a ser forte, ela obriga.</t>
+  </si>
+  <si>
+    <t>toda vez q eu vejo strogonoff escrito eu leio smirnoff</t>
+  </si>
+  <si>
+    <t>@christianq1 perdesse d ganhar meu combo de smirnoff</t>
+  </si>
+  <si>
+    <t>rt @privacidades: quanto mais você lembra, mais saudade dá.</t>
+  </si>
+  <si>
+    <t>smirnoff geladinha, desceu rasgando pqp</t>
+  </si>
+  <si>
+    <t>minha cunhada me chamou pra tomar uma smirnoff</t>
+  </si>
+  <si>
+    <t>@nannaariel n se esqueça q vc esta me devendo uma smirnoff 😉👌</t>
+  </si>
+  <si>
+    <t>contagem regressiva, amanhã filha chora e mãe não vê no nosso #sabadô 🙈
+✅ cerveja antártica 2,00
+✅ combo de smirn… https://t.co/utbyi5qbej</t>
+  </si>
+  <si>
+    <t>rt @nectarfrases: nada é em vão, tudo vem para ensinar.</t>
+  </si>
+  <si>
+    <t>queria um litro de smirnoff agora pra beber todinho enquanto choro</t>
+  </si>
+  <si>
+    <t>amigoss 😍🤗 #plazita #smirnoff 🍏 https://t.co/jwbnosaqez</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: me ame quando eu menos merecer, pois é quando eu mais preciso.</t>
+  </si>
+  <si>
+    <t>@likeaflowerboy é boa? hoje eu dui chique, comprei smirnoff https://t.co/3nm3zzreg6</t>
+  </si>
+  <si>
+    <t>odeioooo smirnoff com todas as minhas forças... nao sei pq eu insisto em beber isso 🙄</t>
+  </si>
+  <si>
+    <t>para de beber vodka, que nn ta dando mais nn , ta deixando mal essas réplicas de smirnoff</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 e pras ratas parar de encher o saco sabe rsrsrsr</t>
+  </si>
+  <si>
+    <t>oi pica 28 cm — xiu kkkkkkk https://t.co/j15ycxcksz</t>
+  </si>
+  <si>
+    <t>meu pai comprou uma smirnoff 😴💙</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 @juniorseumerda @maryannarsf aí desculpinha rsrs</t>
+  </si>
+  <si>
+    <t>crlh eu comeria um pote de açaí sozinho agr</t>
+  </si>
+  <si>
+    <t>fiquei sabendo q passou no teste da pegada — po, legal em  https://t.co/z3ncyvv1fv</t>
+  </si>
+  <si>
+    <t>corote de limão é igual smirnoff ice https://t.co/s4mrqc9uhx</t>
+  </si>
+  <si>
+    <t>@rauanafneu eu tenho q ganhar minha smirnoff te liga</t>
+  </si>
+  <si>
+    <t>@thiagoeulee uhum, mas smirnoff ainda é melhor aposjfa
+vamo dividir meio a meio elas</t>
+  </si>
+  <si>
+    <t>após quatro garrafinhas de smirnoff o resultado é: 0 embriaguez e muita vontade de beber mais</t>
+  </si>
+  <si>
+    <t>meu padrasto comprou uma smirnoff e dois whisky pena que vou passar o final de semana lá no morro 😞</t>
+  </si>
+  <si>
+    <t>rt @privacidades: vontade de viajar pra bem longe.</t>
+  </si>
+  <si>
+    <t>rt @cruelcr7: namorar é pra crescer juntos, transar goxxxtoso e meter o louco, não pra se estressar</t>
+  </si>
+  <si>
+    <t>@ferreir_beatriz vou comprar uma smirnoff pra você</t>
+  </si>
+  <si>
+    <t>tomava smirnoff ice ouvindo essa música achando que tava lokona</t>
+  </si>
+  <si>
+    <t>quebrei uma smirnoff... uma smirnoff carissima importada diretamente do mundial, n to crendo cara... só faço merda</t>
+  </si>
+  <si>
+    <t>rt @freshfrontal: boca nenhuma é capaz de fazer o que a tua faz 
+falar tanta merda</t>
+  </si>
+  <si>
+    <t>eu só queria umas perguntas no cc</t>
+  </si>
+  <si>
+    <t>rt @privacidades: não sou de demonstrar sentimentos, mas sou cheio deles.</t>
+  </si>
+  <si>
+    <t>@miguel_ferreirx companheiro lindo de smirnoff, tu é fera 💕</t>
+  </si>
+  <si>
+    <t>vou fazer uma caipirinha mais tarde com essa smirnoff q ta aq 🍸❤</t>
+  </si>
+  <si>
+    <t>rt @feehgaarcete: se tem uma parada que me faz perder o interesse em conversar com a pessoa é ela demorar p responder</t>
+  </si>
+  <si>
+    <t>mas foi de camarote pelo menos era open bar de brahma,smirnoff,catuaba e eu bebendo da vodka do camarote sem ta lá, os segurança ficou bravo</t>
+  </si>
+  <si>
+    <t>minha vó comprou uma caixa de smirnoff achando que era suco kkkkkkkkkkkkk adorei</t>
+  </si>
+  <si>
+    <t>rt @tmartinsbb: sexta feira tá pertinho passa nada e nem pode</t>
+  </si>
+  <si>
+    <t>quem tu tá com vontade de pegar no aniversário do d... — ihhhhhhh aaaaaaaa.....
+smirnoff https://t.co/rpfdmp81fi</t>
+  </si>
+  <si>
+    <t>e ontem fechou 1 ano do show do glenn hughes em curitiba....
+este foi o grande show de retorno da mosh... https://t.co/kcbfjgsvt9</t>
+  </si>
+  <si>
+    <t>rt @dougraz: já perceberam que sempre que a gente planeja algo mt bom e conta pros outros sempre da errado???????? 
+parece q a inveja tem p…</t>
+  </si>
+  <si>
+    <t>rt @romancesjovens: a gente briga demais, e se ama demais também</t>
+  </si>
+  <si>
+    <t>rt @atafds: "a vida é feita de escolhas"
+eu escolhi ser rico e ate agora nada, pq????????????????????????????</t>
+  </si>
+  <si>
+    <t>e vamos para batalha! 
+metallica em uma das suas mais bonitas músicas...
+(da fase boa, é claro) https://t.co/dtrktdeoqr</t>
+  </si>
+  <si>
+    <t>os amigos do moonspellofficialband abordando tema político e coloca oosama bin laden e saddam hussein ao lado de... https://t.co/il2ugyr4nv</t>
+  </si>
+  <si>
+    <t>essas smirnoff do tamoio são fodas, smp passo mal quando bebo elas</t>
+  </si>
+  <si>
+    <t>vai dar merda capitão!
+to avisando....
+se vocês sempre se perguntaram o sentido da vida...por que estar neste... https://t.co/qvkxjpsdw5</t>
+  </si>
+  <si>
+    <t>rt @juninhodadez: fazendo certo ou o errado, você sempre será criticado.</t>
+  </si>
+  <si>
+    <t>rt @lebaidanova: só uma troca de palavras na dm rss</t>
+  </si>
+  <si>
+    <t>@vtrmeloo @felipecoosta_ só umas garrafas de smirnoff voando e a gente assistindo de camarote dnv</t>
+  </si>
+  <si>
+    <t>rt @privacidades: errar, superar, aprender e recomeçar.</t>
+  </si>
+  <si>
+    <t>rt @fatosbrisa: domingo mal começou, mas vai devagar pq ngm quer segunda</t>
+  </si>
+  <si>
+    <t>rt @marii3401: 🔹 *promoção* 🔹
+      🔞 • *perfection party* • 🔞
+  *sorteio de 2 combos de smirnoff e cortesia* 
+#vemperfectionparty https:…</t>
+  </si>
+  <si>
+    <t>rt @picsnamoro: tem perdas que a gente só ganha.</t>
+  </si>
+  <si>
+    <t>minha coroa tomou smirnoff ontem, disse q ficou doidona..😂🤔</t>
+  </si>
+  <si>
+    <t>metro photo challenge 2017, lá vamos nós! https://t.co/ef4avi1756</t>
+  </si>
+  <si>
+    <t>queria um combo de smirnoff</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 aconteceu</t>
+  </si>
+  <si>
+    <t>🔛me separei - neon edition🔛
+⚠5 garotas= smirnoff⚠ 
+reserve seu camarote!!
+confirmem presença lá no nosso evento… https://t.co/4fu7wsndbl</t>
+  </si>
+  <si>
+    <t>balalaika mandada comprei uma smirnoff n senti gosto d vodka só gosto de água</t>
+  </si>
+  <si>
+    <t>rt @parafraseandx: a humildade é a essência para tudo.</t>
+  </si>
+  <si>
+    <t>rt @feitopraela: quem te ama, te faz feliz.</t>
+  </si>
+  <si>
+    <t>meu novo perfume
+smirnoff, pq pedro é otario</t>
+  </si>
+  <si>
+    <t>🔛me separei - neon edition🔛
+⚠5 garotas= smirnoff⚠ 
+confirmem presença lá no nosso evento ✔… https://t.co/zk5fp6xihc</t>
+  </si>
+  <si>
+    <t>rt @desconhecidosf: pessoas inteligentes, geralmente notam tudo, mas escolhem não dizer nada.</t>
+  </si>
+  <si>
+    <t>pior que lá em casa tem um passport e uma smirnoff fechada 🤤</t>
+  </si>
+  <si>
+    <t>rt @fatosbrisa: domingo sempre é um tédio</t>
+  </si>
+  <si>
+    <t>rt @relatojovens: soma ou some, desenrola ou para de enrolar. é simples.</t>
+  </si>
+  <si>
+    <t>tomei bastante vinho e smirnoff</t>
+  </si>
+  <si>
+    <t>rt @uebrisei: qual é o problema  d vcs em demorar a responder? se eu tô mexendo no celular e chega mensagem eu já entro e respondo logo, de…</t>
+  </si>
+  <si>
+    <t>rt @citousabia_: já vi criança de 30 anos e adulto de 16..</t>
+  </si>
+  <si>
+    <t>50 mas uma smirnoff com 10 latinhas de red bull é água de côco fala tu ? https://t.co/awwg1ps2jr</t>
+  </si>
+  <si>
+    <t>"eu não consigo imaginar o nicolas sem duas garrafas de smirnoff embaixo da cabeça como travesseiro"</t>
+  </si>
+  <si>
+    <t>rt @1kilorecito: o problema é que você está aí, e eu aqui.</t>
+  </si>
+  <si>
+    <t>project s         
+sagu✌🏽
+sauna🌫
+seis é par🔥
+suruba👹
+sexo👉👌
+semen💦
+sol☀️
+som🎶
+stella🍻
+smirnoff🍸
+sera que vai dar ru… https://t.co/y5ulteunnk</t>
+  </si>
+  <si>
+    <t>amor só de mãe, paixão só de cristo</t>
+  </si>
+  <si>
+    <t>rt @miguel_ferreirx: @isadora_segata parceira da smirnoff kakakaka, gosto muito de ti e te acho muito linda😘❤</t>
+  </si>
+  <si>
+    <t>@r4zbl1uto várias smirnoff/corote</t>
+  </si>
+  <si>
+    <t>virose braba me larga que tem duas smirnoff na geladeira esperando o bbzao acaba com elas mais festa amanhã e casamento domingo …</t>
+  </si>
+  <si>
+    <t>rt @crf_joyceee: só quero a sorte de um amor tranquilo</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: provoca quem sabe, resiste quem consegue.</t>
+  </si>
+  <si>
+    <t>quebrei uma garrafa de vodka smirnoff. tristeza profunda.</t>
+  </si>
+  <si>
+    <t>rt @jupxt: uma sobrancelha feita é uma sobrancelha feita, auto estima aumenta 3x mais kkkkkk</t>
+  </si>
+  <si>
+    <t>@paixaopitt depois de 1l de smirnoff quero ver não amar kk</t>
+  </si>
+  <si>
+    <t>"olha a minha cara que vai da 40 reais em smirnoff " kkkkklkkkkkk</t>
+  </si>
+  <si>
+    <t>ou essa smirnoff q ta melhorando o gosto das coisas kkkk</t>
+  </si>
+  <si>
+    <t>@beatrizzab vou deixar uma smirnoff pra gelar e vai estar eu e o funk aqui em casa, pq meus pais vão sair</t>
+  </si>
+  <si>
+    <t>@smirnoff_16 @pwxwx @juniorseumerda some os dois</t>
+  </si>
+  <si>
+    <t>rt @priscilaevelynn: pq às pessoas sempre ficam diminuindo os problemas dos outros pro delas serem maior sendo q tudo é problema tá td mund…</t>
+  </si>
+  <si>
+    <t>' bebemos umas brejas e uma smirnoff 😅🍻⚽️</t>
+  </si>
+  <si>
+    <t>rt @romancesjovens: se rola ciúme é porque rola sentimento.</t>
+  </si>
+  <si>
+    <t>bom dia, hoje tem a melhor da cidade com a melhor equipe de funk furacão 2000(promoção) combo de smirnoff 160,00 e cerveja 5,00</t>
+  </si>
+  <si>
+    <t>rt @sabiadobeco: nego pensa que nois tá de óculos</t>
+  </si>
+  <si>
+    <t>rt @recitouoriente: não sei se estou bem, não sei se estou triste. tá tudo tão sei lá.</t>
+  </si>
+  <si>
+    <t>oi vagabunda — fala vagabunda https://t.co/ef1sbluvvb</t>
+  </si>
+  <si>
+    <t>rt @djphoficial10: você tem que gostar mesmo é de quem te dá atenção, não de quem lembra de você quando não tem mais opção....</t>
+  </si>
+  <si>
+    <t>rt @recitobobmariey: maturidade é saber falar "eu errei" é ter ousadia para dizer "me perdoe" é ter capacidade para expressar "eu preciso d…</t>
+  </si>
+  <si>
+    <t>essa latinha de smirnoff é gostosinha 😍</t>
+  </si>
+  <si>
+    <t>@jqteixeira @ricaperrone @ricaperrone vai virar a sexta-feira tomando smirnoff, assistindo clipe do pabllo vittar e… https://t.co/hzwtvdnnos</t>
+  </si>
+  <si>
+    <t>achei 2 latinhas de smirnoff na geladeira q estão quase passando do prazo de validade será se podemos</t>
+  </si>
+  <si>
+    <t>minha família inteirinha resolveu ir no smirnoff ice festival hoje kkkkkkkkkkkkk não tem melhor!!! ❤</t>
+  </si>
+  <si>
+    <t>o melhor foi ontem o paulo falando 
+"acabou de chegar 5l de catuaba, 3 engradados de cerveja e 2 smirnoff e você tá indo embora???"</t>
+  </si>
+  <si>
+    <t>rt @diariovago: por favor, não cobre de mim aquilo que você não faz.</t>
+  </si>
+  <si>
+    <t>rt @abibiperigosa: vocês tbm gostam de ficar sozinhos no quarto de vcs sem ngm enchendo o saco? eu simmm</t>
+  </si>
+  <si>
+    <t>rt @lnkgiu: odiar ex é tão quinta série</t>
+  </si>
+  <si>
+    <t>@nkordeiregui smirnoff de sabores? skol beats? mas cerveja tem gosto amargo. não gosto de nada amargo. tomo qualquer vodka</t>
+  </si>
+  <si>
+    <t>@yngrridg vou comprar um smirnoff</t>
+  </si>
+  <si>
+    <t>rt @realmariobrasil: queria ter dinheiro igual tenho preguiça</t>
+  </si>
+  <si>
+    <t>to bem triste mas ainda bem que a smirnoff existe e vai me ajudar</t>
+  </si>
+  <si>
+    <t>dica útil do dia: não use smirnoff ice pra matar sede</t>
+  </si>
+  <si>
+    <t>rt @frasesdebebada: sobre te beijar:
+queria
+quero
+sempre quis
+nunca deixei de querer
+quero pra sempre
+quero dnv
+quis
+voltei a querer</t>
+  </si>
+  <si>
+    <t>a vida é tão injusta que um copo de smirnoff já me deixa tonta</t>
   </si>
   <si>
     <t>Relevante</t>
-  </si>
-  <si>
-    <t>ss</t>
   </si>
   <si>
     <t>Nao</t>
@@ -1400,13 +1849,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="137.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="129.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1415,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1423,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1431,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1439,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1447,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1455,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1463,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1471,7 +1920,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1479,7 +1928,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1487,7 +1936,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1495,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1503,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1511,1079 +1960,1079 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B109" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B110" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B111" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B114" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B131" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B132" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B133" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B134" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B135" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B136" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B137" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B139" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B140" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B141" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B142" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B143" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B144" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B145" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B146" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2591,1191 +3040,1191 @@
         <v>133</v>
       </c>
       <c r="B148" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B150" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B151" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B152" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B157" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B160" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B161" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="B162" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B163" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B164" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="B165" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B166" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B167" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="B168" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B169" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B170" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B172" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B173" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B174" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B175" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B176" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B177" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B178" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B179" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B180" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B181" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B182" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B183" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B184" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B185" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B187" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B189" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B190" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B191" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B192" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B193" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="B194" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B195" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B196" t="s">
-        <v>304</v>
+        <v>422</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B197" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B198" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B199" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B200" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B201" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="B202" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B203" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B204" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="B205" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B206" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B207" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B208" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B209" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B210" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B211" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="B212" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B214" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B215" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B216" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B217" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B218" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="B219" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B220" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B221" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B222" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="B223" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B224" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="B225" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B226" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B227" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="B228" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B229" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B230" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="B231" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B232" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B233" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B234" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="B235" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B236" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B237" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B238" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="B239" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B240" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="B241" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B242" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B243" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B244" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B245" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B246" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B247" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B248" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B249" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B250" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B251" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B252" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B253" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B254" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="B255" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B256" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B257" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B258" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B259" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B260" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B261" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B262" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="B263" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="B264" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B265" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B266" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B267" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="B268" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B269" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B270" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B271" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B272" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B273" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B274" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B275" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B276" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B277" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B278" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B279" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B280" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B281" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B282" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B283" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="B284" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="B285" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B286" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="B287" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B288" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="B289" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B290" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B291" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="B292" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="B293" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B294" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="B295" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="B296" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -3783,7 +4232,7 @@
         <v>260</v>
       </c>
       <c r="B297" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -3791,7 +4240,7 @@
         <v>261</v>
       </c>
       <c r="B298" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -3799,23 +4248,23 @@
         <v>262</v>
       </c>
       <c r="B299" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="B300" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B301" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3825,428 +4274,1627 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="124.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="129.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s">
-        <v>305</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>314</v>
+      </c>
+      <c r="B53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>315</v>
+      </c>
+      <c r="B55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>316</v>
+      </c>
+      <c r="B56" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>317</v>
+      </c>
+      <c r="B57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>320</v>
+      </c>
+      <c r="B60" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>322</v>
+      </c>
+      <c r="B63" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>323</v>
+      </c>
+      <c r="B65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>324</v>
+      </c>
+      <c r="B70" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>325</v>
+      </c>
+      <c r="B71" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>327</v>
+      </c>
+      <c r="B73" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>330</v>
+      </c>
+      <c r="B77" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>331</v>
+      </c>
+      <c r="B79" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>338</v>
+      </c>
+      <c r="B90" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>339</v>
+      </c>
+      <c r="B91" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>340</v>
+      </c>
+      <c r="B92" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>341</v>
+      </c>
+      <c r="B94" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>342</v>
+      </c>
+      <c r="B95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>343</v>
+      </c>
+      <c r="B96" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>344</v>
+      </c>
+      <c r="B97" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>345</v>
+      </c>
+      <c r="B98" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>346</v>
+      </c>
+      <c r="B99" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>347</v>
+      </c>
+      <c r="B102" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>348</v>
+      </c>
+      <c r="B103" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>349</v>
+      </c>
+      <c r="B105" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>350</v>
+      </c>
+      <c r="B106" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>351</v>
+      </c>
+      <c r="B108" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>352</v>
+      </c>
+      <c r="B110" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>353</v>
+      </c>
+      <c r="B112" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>354</v>
+      </c>
+      <c r="B113" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>355</v>
+      </c>
+      <c r="B114" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>356</v>
+      </c>
+      <c r="B115" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>357</v>
+      </c>
+      <c r="B116" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>358</v>
+      </c>
+      <c r="B118" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>359</v>
+      </c>
+      <c r="B119" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>360</v>
+      </c>
+      <c r="B120" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>361</v>
+      </c>
+      <c r="B121" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>362</v>
+      </c>
+      <c r="B122" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>363</v>
+      </c>
+      <c r="B123" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>364</v>
+      </c>
+      <c r="B124" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>365</v>
+      </c>
+      <c r="B125" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>366</v>
+      </c>
+      <c r="B126" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>367</v>
+      </c>
+      <c r="B127" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>368</v>
+      </c>
+      <c r="B128" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>369</v>
+      </c>
+      <c r="B129" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>370</v>
+      </c>
+      <c r="B131" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>372</v>
+      </c>
+      <c r="B134" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>373</v>
+      </c>
+      <c r="B135" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>374</v>
+      </c>
+      <c r="B136" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>376</v>
+      </c>
+      <c r="B139" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>129</v>
+      </c>
+      <c r="B141" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>377</v>
+      </c>
+      <c r="B142" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>378</v>
+      </c>
+      <c r="B143" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>379</v>
+      </c>
+      <c r="B145" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>380</v>
+      </c>
+      <c r="B150" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>381</v>
+      </c>
+      <c r="B152" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>382</v>
+      </c>
+      <c r="B153" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>383</v>
+      </c>
+      <c r="B154" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>384</v>
+      </c>
+      <c r="B156" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>385</v>
+      </c>
+      <c r="B157" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>129</v>
+      </c>
+      <c r="B158" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>386</v>
+      </c>
+      <c r="B160" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>387</v>
+      </c>
+      <c r="B161" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>388</v>
+      </c>
+      <c r="B162" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>187</v>
+      </c>
+      <c r="B163" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>389</v>
+      </c>
+      <c r="B164" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>390</v>
+      </c>
+      <c r="B165" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>391</v>
+      </c>
+      <c r="B166" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>392</v>
+      </c>
+      <c r="B167" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>393</v>
+      </c>
+      <c r="B169" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>394</v>
+      </c>
+      <c r="B170" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>395</v>
+      </c>
+      <c r="B172" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>396</v>
+      </c>
+      <c r="B173" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>397</v>
+      </c>
+      <c r="B174" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>398</v>
+      </c>
+      <c r="B175" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>399</v>
+      </c>
+      <c r="B176" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>400</v>
+      </c>
+      <c r="B177" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>401</v>
+      </c>
+      <c r="B178" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>402</v>
+      </c>
+      <c r="B179" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>403</v>
+      </c>
+      <c r="B180" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>404</v>
+      </c>
+      <c r="B181" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>405</v>
+      </c>
+      <c r="B183" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>406</v>
+      </c>
+      <c r="B184" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>407</v>
+      </c>
+      <c r="B185" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>408</v>
+      </c>
+      <c r="B186" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>409</v>
+      </c>
+      <c r="B187" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>410</v>
+      </c>
+      <c r="B188" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>411</v>
+      </c>
+      <c r="B189" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>412</v>
+      </c>
+      <c r="B190" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>413</v>
+      </c>
+      <c r="B191" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>414</v>
+      </c>
+      <c r="B193" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>415</v>
+      </c>
+      <c r="B195" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>416</v>
+      </c>
+      <c r="B196" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>417</v>
+      </c>
+      <c r="B197" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>418</v>
+      </c>
+      <c r="B198" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>419</v>
+      </c>
+      <c r="B199" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>420</v>
+      </c>
+      <c r="B200" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>